--- a/table_itajai_test.xlsx
+++ b/table_itajai_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdminDell\Desktop\Fast_PPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdminDell\Desktop\AUTOMATIZACAO_DIALUX_ITAJAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114FCDB6-EE87-4744-B778-6B3435973610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC96DA4-96EC-4124-85D8-277CEFBC8774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RIAN - V4P4" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="152">
   <si>
     <t>Quantidade Material 17</t>
   </si>
@@ -920,7 +920,7 @@
   <dimension ref="A1:AC208"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1045,8 +1045,8 @@
       <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="7">
-        <v>60</v>
+      <c r="P2" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>21</v>
@@ -2713,9 +2713,6 @@
       <c r="U38" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V38" s="1">
-        <v>1</v>
-      </c>
       <c r="W38" s="20"/>
       <c r="X38" s="20"/>
       <c r="Y38" s="14" t="s">
@@ -2753,9 +2750,6 @@
       <c r="U39" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V39" s="1">
-        <v>1</v>
-      </c>
       <c r="W39" s="20"/>
       <c r="X39" s="20"/>
       <c r="Y39" s="12" t="s">
@@ -2793,9 +2787,6 @@
       <c r="U40" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V40" s="1">
-        <v>1</v>
-      </c>
       <c r="W40" s="20"/>
       <c r="X40" s="20"/>
       <c r="Y40" s="14" t="s">
@@ -2833,9 +2824,6 @@
       <c r="U41" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V41" s="1">
-        <v>1</v>
-      </c>
       <c r="W41" s="20"/>
       <c r="X41" s="20"/>
       <c r="Y41" s="14" t="s">
@@ -2873,9 +2861,6 @@
       <c r="U42" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V42" s="1">
-        <v>1</v>
-      </c>
       <c r="W42" s="20"/>
       <c r="X42" s="20"/>
       <c r="Y42" s="12" t="s">
@@ -2913,9 +2898,6 @@
       <c r="U43" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V43" s="1">
-        <v>1</v>
-      </c>
       <c r="W43" s="20"/>
       <c r="X43" s="20"/>
       <c r="Y43" s="12" t="s">
@@ -2953,9 +2935,6 @@
       <c r="U44" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V44" s="1">
-        <v>1</v>
-      </c>
       <c r="W44" s="20"/>
       <c r="X44" s="20"/>
       <c r="Y44" s="12" t="s">
@@ -2993,9 +2972,6 @@
       <c r="U45" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V45" s="1">
-        <v>1</v>
-      </c>
       <c r="W45" s="20"/>
       <c r="X45" s="20"/>
       <c r="Y45" s="12" t="s">
@@ -3033,9 +3009,6 @@
       <c r="U46" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V46" s="1">
-        <v>1</v>
-      </c>
       <c r="W46" s="20"/>
       <c r="X46" s="20"/>
       <c r="Y46" s="12" t="s">
@@ -3073,9 +3046,6 @@
       <c r="U47" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V47" s="1">
-        <v>1</v>
-      </c>
       <c r="W47" s="20"/>
       <c r="X47" s="20"/>
       <c r="Y47" s="12" t="s">
@@ -3113,9 +3083,6 @@
       <c r="U48" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V48" s="1">
-        <v>1</v>
-      </c>
       <c r="W48" s="20"/>
       <c r="X48" s="20"/>
       <c r="Y48" s="12" t="s">
@@ -3153,9 +3120,6 @@
       <c r="U49" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V49" s="1">
-        <v>1</v>
-      </c>
       <c r="W49" s="20"/>
       <c r="X49" s="20"/>
       <c r="Y49" s="12" t="s">
@@ -3193,9 +3157,6 @@
       <c r="U50" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="V50" s="1">
-        <v>1</v>
-      </c>
       <c r="W50" s="20"/>
       <c r="X50" s="20"/>
       <c r="Y50" s="12" t="s">
@@ -3233,9 +3194,6 @@
       <c r="U51" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V51" s="1">
-        <v>1</v>
-      </c>
       <c r="W51" s="20"/>
       <c r="X51" s="20"/>
       <c r="Y51" s="12" t="s">
@@ -3273,9 +3231,6 @@
       <c r="U52" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V52" s="1">
-        <v>1</v>
-      </c>
       <c r="W52" s="20"/>
       <c r="X52" s="20"/>
       <c r="Y52" s="12" t="s">
@@ -3313,9 +3268,6 @@
       <c r="U53" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="V53" s="1">
-        <v>1</v>
-      </c>
       <c r="W53" s="20"/>
       <c r="X53" s="20"/>
       <c r="Y53" s="12" t="s">
@@ -3353,9 +3305,6 @@
       <c r="U54" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V54" s="1">
-        <v>1</v>
-      </c>
       <c r="W54" s="20"/>
       <c r="X54" s="20"/>
       <c r="Y54" s="12" t="s">
@@ -3393,9 +3342,6 @@
       <c r="U55" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V55" s="1">
-        <v>1</v>
-      </c>
       <c r="W55" s="20"/>
       <c r="X55" s="20"/>
       <c r="Y55" s="14" t="s">
@@ -3433,9 +3379,6 @@
       <c r="U56" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V56" s="1">
-        <v>1</v>
-      </c>
       <c r="W56" s="20"/>
       <c r="X56" s="20"/>
       <c r="Y56" s="14" t="s">
@@ -3473,9 +3416,6 @@
       <c r="U57" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V57" s="1">
-        <v>1</v>
-      </c>
       <c r="W57" s="20"/>
       <c r="X57" s="20"/>
       <c r="Y57" s="12" t="s">
@@ -3513,9 +3453,6 @@
       <c r="U58" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V58" s="1">
-        <v>1</v>
-      </c>
       <c r="W58" s="20"/>
       <c r="X58" s="20"/>
       <c r="Y58" s="12" t="s">
@@ -3553,9 +3490,6 @@
       <c r="U59" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V59" s="1">
-        <v>1</v>
-      </c>
       <c r="W59" s="20"/>
       <c r="X59" s="20"/>
       <c r="Y59" s="12" t="s">
@@ -3593,9 +3527,6 @@
       <c r="U60" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="V60" s="1">
-        <v>1</v>
-      </c>
       <c r="W60" s="20"/>
       <c r="X60" s="20"/>
       <c r="Y60" s="13" t="s">
@@ -3633,9 +3564,6 @@
       <c r="U61" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="V61" s="1">
-        <v>1</v>
-      </c>
       <c r="W61" s="20"/>
       <c r="X61" s="20"/>
       <c r="Y61" s="13" t="s">
@@ -3673,9 +3601,6 @@
       <c r="U62" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="V62" s="1">
-        <v>1</v>
-      </c>
       <c r="W62" s="20"/>
       <c r="X62" s="20"/>
       <c r="Y62" s="13" t="s">
@@ -3713,9 +3638,6 @@
       <c r="U63" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="V63" s="1">
-        <v>1</v>
-      </c>
       <c r="W63" s="20"/>
       <c r="X63" s="20"/>
       <c r="Y63" s="13" t="s">
@@ -3753,9 +3675,6 @@
       <c r="U64" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="V64" s="1">
-        <v>1</v>
-      </c>
       <c r="W64" s="20"/>
       <c r="X64" s="20"/>
       <c r="Y64" s="13" t="s">
@@ -3793,9 +3712,6 @@
       <c r="U65" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="V65" s="1">
-        <v>1</v>
-      </c>
       <c r="W65" s="20"/>
       <c r="X65" s="20"/>
       <c r="Y65" s="13" t="s">
@@ -3833,9 +3749,6 @@
       <c r="U66" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="V66" s="1">
-        <v>1</v>
-      </c>
       <c r="W66" s="20"/>
       <c r="X66" s="20"/>
       <c r="Y66" s="13" t="s">
@@ -3873,9 +3786,6 @@
       <c r="U67" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="V67" s="1">
-        <v>1</v>
-      </c>
       <c r="W67" s="20"/>
       <c r="X67" s="20"/>
       <c r="Y67" s="13" t="s">
@@ -3913,9 +3823,6 @@
       <c r="U68" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="V68" s="1">
-        <v>1</v>
-      </c>
       <c r="W68" s="20"/>
       <c r="X68" s="20"/>
       <c r="Y68" s="13" t="s">
@@ -3953,9 +3860,6 @@
       <c r="U69" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="V69" s="1">
-        <v>1</v>
-      </c>
       <c r="W69" s="20"/>
       <c r="X69" s="20"/>
       <c r="Y69" s="13" t="s">
@@ -3993,9 +3897,6 @@
       <c r="U70" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="V70" s="1">
-        <v>1</v>
-      </c>
       <c r="W70" s="20"/>
       <c r="X70" s="20"/>
       <c r="Y70" s="13" t="s">
@@ -4033,9 +3934,6 @@
       <c r="U71" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="V71" s="1">
-        <v>1</v>
-      </c>
       <c r="W71" s="20"/>
       <c r="X71" s="20"/>
       <c r="Y71" s="13" t="s">
@@ -4073,9 +3971,6 @@
       <c r="U72" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="V72" s="1">
-        <v>1</v>
-      </c>
       <c r="W72" s="20"/>
       <c r="X72" s="20"/>
       <c r="Y72" s="13" t="s">
@@ -4113,9 +4008,6 @@
       <c r="U73" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="V73" s="1">
-        <v>1</v>
-      </c>
       <c r="W73" s="20"/>
       <c r="X73" s="20"/>
       <c r="Y73" s="13" t="s">
@@ -4153,9 +4045,6 @@
       <c r="U74" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="V74" s="1">
-        <v>1</v>
-      </c>
       <c r="W74" s="20"/>
       <c r="X74" s="20"/>
       <c r="Y74" s="13" t="s">
@@ -4193,9 +4082,6 @@
       <c r="U75" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="V75" s="1">
-        <v>1</v>
-      </c>
       <c r="W75" s="20"/>
       <c r="X75" s="20"/>
       <c r="Y75" s="13" t="s">
@@ -4233,9 +4119,6 @@
       <c r="U76" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="V76" s="1">
-        <v>1</v>
-      </c>
       <c r="W76" s="20"/>
       <c r="X76" s="20"/>
       <c r="Y76" s="13" t="s">
@@ -4273,9 +4156,6 @@
       <c r="U77" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="V77" s="1">
-        <v>1</v>
-      </c>
       <c r="W77" s="20"/>
       <c r="X77" s="20"/>
       <c r="Y77" s="13" t="s">
@@ -4313,9 +4193,6 @@
       <c r="U78" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V78" s="1">
-        <v>1</v>
-      </c>
       <c r="W78" s="20"/>
       <c r="X78" s="20"/>
       <c r="Y78" s="12" t="s">
@@ -4353,9 +4230,6 @@
       <c r="U79" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V79" s="1">
-        <v>1</v>
-      </c>
       <c r="W79" s="20"/>
       <c r="X79" s="20"/>
       <c r="Y79" s="14" t="s">
@@ -4393,9 +4267,6 @@
       <c r="U80" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V80" s="1">
-        <v>1</v>
-      </c>
       <c r="W80" s="20"/>
       <c r="X80" s="20"/>
       <c r="Y80" s="14" t="s">
@@ -4433,9 +4304,6 @@
       <c r="U81" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V81" s="1">
-        <v>1</v>
-      </c>
       <c r="W81" s="20"/>
       <c r="X81" s="20"/>
       <c r="Y81" s="14" t="s">
@@ -4473,9 +4341,6 @@
       <c r="U82" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V82" s="1">
-        <v>1</v>
-      </c>
       <c r="W82" s="20"/>
       <c r="X82" s="20"/>
       <c r="Y82" s="14" t="s">
@@ -4513,9 +4378,6 @@
       <c r="U83" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V83" s="1">
-        <v>1</v>
-      </c>
       <c r="W83" s="20"/>
       <c r="X83" s="20"/>
       <c r="Y83" s="14" t="s">
@@ -4553,9 +4415,6 @@
       <c r="U84" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V84" s="1">
-        <v>1</v>
-      </c>
       <c r="W84" s="20"/>
       <c r="X84" s="20"/>
       <c r="Y84" s="12" t="s">
@@ -4593,9 +4452,6 @@
       <c r="U85" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V85" s="1">
-        <v>1</v>
-      </c>
       <c r="W85" s="20"/>
       <c r="X85" s="20"/>
       <c r="Y85" s="12" t="s">
@@ -4633,9 +4489,6 @@
       <c r="U86" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V86" s="1">
-        <v>1</v>
-      </c>
       <c r="W86" s="20"/>
       <c r="X86" s="20"/>
       <c r="Y86" s="12" t="s">
@@ -4673,9 +4526,6 @@
       <c r="U87" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V87" s="1">
-        <v>1</v>
-      </c>
       <c r="W87" s="20"/>
       <c r="X87" s="20"/>
       <c r="Y87" s="12" t="s">
@@ -4713,9 +4563,6 @@
       <c r="U88" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V88" s="1">
-        <v>1</v>
-      </c>
       <c r="W88" s="20"/>
       <c r="X88" s="20"/>
       <c r="Y88" s="12" t="s">
@@ -4753,9 +4600,6 @@
       <c r="U89" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="V89" s="1">
-        <v>1</v>
-      </c>
       <c r="W89" s="20"/>
       <c r="X89" s="20"/>
       <c r="Y89" s="13" t="s">
@@ -4793,9 +4637,6 @@
       <c r="U90" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="V90" s="1">
-        <v>1</v>
-      </c>
       <c r="W90" s="20"/>
       <c r="X90" s="20"/>
       <c r="Y90" s="13" t="s">
@@ -4833,9 +4674,6 @@
       <c r="U91" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="V91" s="1">
-        <v>1</v>
-      </c>
       <c r="W91" s="20"/>
       <c r="X91" s="20"/>
       <c r="Y91" s="13" t="s">
@@ -4873,9 +4711,6 @@
       <c r="U92" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="V92" s="1">
-        <v>1</v>
-      </c>
       <c r="W92" s="20"/>
       <c r="X92" s="20"/>
       <c r="Y92" s="13" t="s">
@@ -4913,9 +4748,6 @@
       <c r="U93" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="V93" s="1">
-        <v>1</v>
-      </c>
       <c r="W93" s="20"/>
       <c r="X93" s="20"/>
       <c r="Y93" s="13" t="s">
@@ -4953,9 +4785,6 @@
       <c r="U94" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="V94" s="1">
-        <v>1</v>
-      </c>
       <c r="W94" s="20"/>
       <c r="X94" s="20"/>
       <c r="Y94" s="13" t="s">
@@ -4993,9 +4822,6 @@
       <c r="U95" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="V95" s="1">
-        <v>1</v>
-      </c>
       <c r="W95" s="20"/>
       <c r="X95" s="20"/>
       <c r="Y95" s="13" t="s">
@@ -5033,9 +4859,6 @@
       <c r="U96" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="V96" s="1">
-        <v>1</v>
-      </c>
       <c r="W96" s="20"/>
       <c r="X96" s="20"/>
       <c r="Y96" s="13" t="s">
@@ -5073,9 +4896,6 @@
       <c r="U97" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="V97" s="1">
-        <v>1</v>
-      </c>
       <c r="W97" s="20"/>
       <c r="X97" s="20"/>
       <c r="Y97" s="13" t="s">
@@ -5113,9 +4933,6 @@
       <c r="U98" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="V98" s="1">
-        <v>1</v>
-      </c>
       <c r="W98" s="20"/>
       <c r="X98" s="20"/>
       <c r="Y98" s="13" t="s">
@@ -5153,9 +4970,6 @@
       <c r="U99" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="V99" s="1">
-        <v>1</v>
-      </c>
       <c r="W99" s="20"/>
       <c r="X99" s="20"/>
       <c r="Y99" s="13" t="s">
@@ -5193,9 +5007,6 @@
       <c r="U100" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="V100" s="1">
-        <v>1</v>
-      </c>
       <c r="W100" s="20"/>
       <c r="X100" s="20"/>
       <c r="Y100" s="13" t="s">
@@ -5233,9 +5044,6 @@
       <c r="U101" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="V101" s="1">
-        <v>1</v>
-      </c>
       <c r="W101" s="20"/>
       <c r="X101" s="20"/>
       <c r="Y101" s="13" t="s">
@@ -5273,9 +5081,6 @@
       <c r="U102" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="V102" s="1">
-        <v>1</v>
-      </c>
       <c r="W102" s="20"/>
       <c r="X102" s="20"/>
       <c r="Y102" s="13" t="s">
@@ -5313,9 +5118,6 @@
       <c r="U103" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="V103" s="1">
-        <v>1</v>
-      </c>
       <c r="W103" s="20"/>
       <c r="X103" s="20"/>
       <c r="Y103" s="13" t="s">
@@ -5353,9 +5155,6 @@
       <c r="U104" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="V104" s="1">
-        <v>1</v>
-      </c>
       <c r="W104" s="20"/>
       <c r="X104" s="20"/>
       <c r="Y104" s="13" t="s">
@@ -5393,9 +5192,6 @@
       <c r="U105" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="V105" s="1">
-        <v>1</v>
-      </c>
       <c r="W105" s="20"/>
       <c r="X105" s="20"/>
       <c r="Y105" s="13" t="s">
@@ -5433,9 +5229,6 @@
       <c r="U106" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="V106" s="1">
-        <v>1</v>
-      </c>
       <c r="W106" s="20"/>
       <c r="X106" s="20"/>
       <c r="Y106" s="13" t="s">
@@ -5473,9 +5266,6 @@
       <c r="U107" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="V107" s="1">
-        <v>1</v>
-      </c>
       <c r="W107" s="20"/>
       <c r="X107" s="20"/>
       <c r="Y107" s="13" t="s">
@@ -5513,9 +5303,6 @@
       <c r="U108" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="V108" s="1">
-        <v>1</v>
-      </c>
       <c r="W108" s="20"/>
       <c r="X108" s="20"/>
       <c r="Y108" s="13" t="s">
@@ -5553,9 +5340,6 @@
       <c r="U109" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="V109" s="1">
-        <v>1</v>
-      </c>
       <c r="W109" s="20"/>
       <c r="X109" s="20"/>
       <c r="Y109" s="13" t="s">
@@ -5593,9 +5377,6 @@
       <c r="U110" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="V110" s="1">
-        <v>1</v>
-      </c>
       <c r="W110" s="20"/>
       <c r="X110" s="20"/>
       <c r="Y110" s="13" t="s">
@@ -5633,9 +5414,6 @@
       <c r="U111" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="V111" s="1">
-        <v>1</v>
-      </c>
       <c r="W111" s="20"/>
       <c r="X111" s="20"/>
       <c r="Y111" s="13" t="s">
@@ -5673,9 +5451,6 @@
       <c r="U112" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="V112" s="1">
-        <v>1</v>
-      </c>
       <c r="W112" s="20"/>
       <c r="X112" s="20"/>
       <c r="Y112" s="13" t="s">
@@ -5713,9 +5488,6 @@
       <c r="U113" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="V113" s="1">
-        <v>1</v>
-      </c>
       <c r="W113" s="20"/>
       <c r="X113" s="20"/>
       <c r="Y113" s="13" t="s">
@@ -5753,9 +5525,6 @@
       <c r="U114" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="V114" s="1">
-        <v>1</v>
-      </c>
       <c r="W114" s="20"/>
       <c r="X114" s="20"/>
       <c r="Y114" s="13" t="s">
@@ -5793,9 +5562,6 @@
       <c r="U115" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="V115" s="1">
-        <v>1</v>
-      </c>
       <c r="W115" s="20"/>
       <c r="X115" s="20"/>
       <c r="Y115" s="13" t="s">
@@ -5833,9 +5599,6 @@
       <c r="U116" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="V116" s="1">
-        <v>1</v>
-      </c>
       <c r="W116" s="20"/>
       <c r="X116" s="20"/>
       <c r="Y116" s="13" t="s">
@@ -5873,9 +5636,6 @@
       <c r="U117" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="V117" s="1">
-        <v>1</v>
-      </c>
       <c r="W117" s="20"/>
       <c r="X117" s="20"/>
       <c r="Y117" s="13" t="s">
@@ -5913,9 +5673,6 @@
       <c r="U118" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="V118" s="1">
-        <v>1</v>
-      </c>
       <c r="W118" s="20"/>
       <c r="X118" s="20"/>
       <c r="Y118" s="13" t="s">
@@ -5953,9 +5710,6 @@
       <c r="U119" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="V119" s="1">
-        <v>1</v>
-      </c>
       <c r="W119" s="20"/>
       <c r="X119" s="20"/>
       <c r="Y119" s="13" t="s">
@@ -5993,9 +5747,6 @@
       <c r="U120" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="V120" s="1">
-        <v>1</v>
-      </c>
       <c r="W120" s="20"/>
       <c r="X120" s="20"/>
       <c r="Y120" s="13" t="s">
@@ -6033,9 +5784,6 @@
       <c r="U121" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="V121" s="1">
-        <v>1</v>
-      </c>
       <c r="W121" s="20"/>
       <c r="X121" s="20"/>
       <c r="Y121" s="13" t="s">
@@ -6073,9 +5821,6 @@
       <c r="U122" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="V122" s="1">
-        <v>1</v>
-      </c>
       <c r="W122" s="20"/>
       <c r="X122" s="20"/>
       <c r="Y122" s="13" t="s">
@@ -6113,9 +5858,6 @@
       <c r="U123" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="V123" s="1">
-        <v>1</v>
-      </c>
       <c r="W123" s="20"/>
       <c r="X123" s="20"/>
       <c r="Y123" s="13" t="s">
@@ -6153,9 +5895,6 @@
       <c r="U124" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="V124" s="1">
-        <v>1</v>
-      </c>
       <c r="W124" s="20"/>
       <c r="X124" s="20"/>
       <c r="Y124" s="13" t="s">
@@ -6193,9 +5932,6 @@
       <c r="U125" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="V125" s="1">
-        <v>1</v>
-      </c>
       <c r="W125" s="20"/>
       <c r="X125" s="20"/>
       <c r="Y125" s="13" t="s">
@@ -6233,9 +5969,6 @@
       <c r="U126" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="V126" s="1">
-        <v>1</v>
-      </c>
       <c r="W126" s="20"/>
       <c r="X126" s="20"/>
       <c r="Y126" s="13" t="s">
@@ -6273,9 +6006,6 @@
       <c r="U127" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="V127" s="1">
-        <v>1</v>
-      </c>
       <c r="W127" s="20"/>
       <c r="X127" s="20"/>
       <c r="Y127" s="13" t="s">
@@ -6313,9 +6043,6 @@
       <c r="U128" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="V128" s="1">
-        <v>1</v>
-      </c>
       <c r="W128" s="20"/>
       <c r="X128" s="20"/>
       <c r="Y128" s="13" t="s">
@@ -6353,9 +6080,6 @@
       <c r="U129" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="V129" s="1">
-        <v>1</v>
-      </c>
       <c r="W129" s="20"/>
       <c r="X129" s="20"/>
       <c r="Y129" s="13" t="s">
@@ -6393,9 +6117,6 @@
       <c r="U130" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="V130" s="1">
-        <v>1</v>
-      </c>
       <c r="W130" s="20"/>
       <c r="X130" s="20"/>
       <c r="Y130" s="13" t="s">
@@ -6433,9 +6154,6 @@
       <c r="U131" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="V131" s="1">
-        <v>1</v>
-      </c>
       <c r="W131" s="20"/>
       <c r="X131" s="20"/>
       <c r="Y131" s="13" t="s">
@@ -6473,9 +6191,6 @@
       <c r="U132" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="V132" s="1">
-        <v>1</v>
-      </c>
       <c r="W132" s="20"/>
       <c r="X132" s="20"/>
       <c r="Y132" s="13" t="s">
@@ -6513,9 +6228,6 @@
       <c r="U133" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V133" s="1">
-        <v>1</v>
-      </c>
       <c r="W133" s="20"/>
       <c r="X133" s="20"/>
       <c r="Y133" s="12" t="s">
@@ -6553,9 +6265,6 @@
       <c r="U134" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V134" s="1">
-        <v>1</v>
-      </c>
       <c r="W134" s="20"/>
       <c r="X134" s="20"/>
       <c r="Y134" s="12" t="s">
@@ -6593,9 +6302,6 @@
       <c r="U135" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V135" s="1">
-        <v>1</v>
-      </c>
       <c r="W135" s="20"/>
       <c r="X135" s="20"/>
       <c r="Y135" s="12" t="s">
@@ -6633,9 +6339,6 @@
       <c r="U136" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V136" s="1">
-        <v>1</v>
-      </c>
       <c r="W136" s="20"/>
       <c r="X136" s="20"/>
       <c r="Y136" s="12" t="s">
@@ -6673,9 +6376,6 @@
       <c r="U137" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="V137" s="1">
-        <v>1</v>
-      </c>
       <c r="W137" s="20"/>
       <c r="X137" s="20"/>
       <c r="Y137" s="13" t="s">
@@ -6713,9 +6413,6 @@
       <c r="U138" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V138" s="1">
-        <v>1</v>
-      </c>
       <c r="W138" s="20"/>
       <c r="X138" s="20"/>
       <c r="Y138" s="12" t="s">
@@ -6753,9 +6450,6 @@
       <c r="U139" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V139" s="1">
-        <v>1</v>
-      </c>
       <c r="W139" s="19"/>
       <c r="X139" s="19"/>
       <c r="Y139" s="12" t="s">
@@ -6793,9 +6487,6 @@
       <c r="U140" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V140" s="1">
-        <v>1</v>
-      </c>
       <c r="W140" s="19"/>
       <c r="X140" s="19"/>
       <c r="Y140" s="12" t="s">
@@ -6833,9 +6524,6 @@
       <c r="U141" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V141" s="1">
-        <v>1</v>
-      </c>
       <c r="W141" s="19"/>
       <c r="X141" s="19"/>
       <c r="Y141" s="12" t="s">
@@ -6873,9 +6561,6 @@
       <c r="U142" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="V142" s="1">
-        <v>1</v>
-      </c>
       <c r="W142" s="19"/>
       <c r="X142" s="19"/>
       <c r="Y142" s="12" t="s">
@@ -6913,9 +6598,6 @@
       <c r="U143" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V143" s="1">
-        <v>1</v>
-      </c>
       <c r="W143" s="19"/>
       <c r="X143" s="19"/>
       <c r="Y143" s="14" t="s">
@@ -6953,9 +6635,6 @@
       <c r="U144" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V144" s="1">
-        <v>1</v>
-      </c>
       <c r="W144" s="19"/>
       <c r="X144" s="19"/>
       <c r="Y144" s="14" t="s">
@@ -6993,9 +6672,6 @@
       <c r="U145" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V145" s="1">
-        <v>1</v>
-      </c>
       <c r="W145" s="19"/>
       <c r="X145" s="19"/>
       <c r="Y145" s="14" t="s">
@@ -7033,9 +6709,6 @@
       <c r="U146" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V146" s="1">
-        <v>1</v>
-      </c>
       <c r="W146" s="19"/>
       <c r="X146" s="19"/>
       <c r="Y146" s="12" t="s">
@@ -7073,9 +6746,6 @@
       <c r="U147" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V147" s="1">
-        <v>1</v>
-      </c>
       <c r="W147" s="19"/>
       <c r="X147" s="19"/>
       <c r="Y147" s="12" t="s">
@@ -7113,9 +6783,6 @@
       <c r="U148" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V148" s="1">
-        <v>1</v>
-      </c>
       <c r="W148" s="19"/>
       <c r="X148" s="19"/>
       <c r="Y148" s="12" t="s">
@@ -7153,9 +6820,6 @@
       <c r="U149" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V149" s="1">
-        <v>1</v>
-      </c>
       <c r="W149" s="19"/>
       <c r="X149" s="19"/>
       <c r="Y149" s="12" t="s">
@@ -7193,9 +6857,6 @@
       <c r="U150" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V150" s="1">
-        <v>1</v>
-      </c>
       <c r="W150" s="19"/>
       <c r="X150" s="19"/>
       <c r="Y150" s="12" t="s">
@@ -7233,9 +6894,6 @@
       <c r="U151" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V151" s="1">
-        <v>1</v>
-      </c>
       <c r="W151" s="19"/>
       <c r="X151" s="19"/>
       <c r="Y151" s="12" t="s">
@@ -7273,9 +6931,6 @@
       <c r="U152" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V152" s="1">
-        <v>1</v>
-      </c>
       <c r="W152" s="19"/>
       <c r="X152" s="19"/>
       <c r="Y152" s="14" t="s">
@@ -7313,9 +6968,6 @@
       <c r="U153" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V153" s="1">
-        <v>1</v>
-      </c>
       <c r="W153" s="19"/>
       <c r="X153" s="19"/>
       <c r="Y153" s="14" t="s">
@@ -7353,9 +7005,6 @@
       <c r="U154" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V154" s="1">
-        <v>1</v>
-      </c>
       <c r="W154" s="19"/>
       <c r="X154" s="19"/>
       <c r="Y154" s="14" t="s">
@@ -7393,9 +7042,6 @@
       <c r="U155" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V155" s="1">
-        <v>1</v>
-      </c>
       <c r="W155" s="19"/>
       <c r="X155" s="19"/>
       <c r="Y155" s="14" t="s">
@@ -7433,9 +7079,6 @@
       <c r="U156" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V156" s="1">
-        <v>1</v>
-      </c>
       <c r="W156" s="19"/>
       <c r="X156" s="19"/>
       <c r="Y156" s="14" t="s">
@@ -7473,9 +7116,6 @@
       <c r="U157" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V157" s="1">
-        <v>1</v>
-      </c>
       <c r="W157" s="19"/>
       <c r="X157" s="19"/>
       <c r="Y157" s="14" t="s">
@@ -7513,9 +7153,6 @@
       <c r="U158" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V158" s="1">
-        <v>1</v>
-      </c>
       <c r="W158" s="19"/>
       <c r="X158" s="19"/>
       <c r="Y158" s="14" t="s">
@@ -7553,9 +7190,6 @@
       <c r="U159" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V159" s="1">
-        <v>1</v>
-      </c>
       <c r="W159" s="19"/>
       <c r="X159" s="19"/>
       <c r="Y159" s="14" t="s">
@@ -7593,9 +7227,6 @@
       <c r="U160" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V160" s="1">
-        <v>1</v>
-      </c>
       <c r="W160" s="19"/>
       <c r="X160" s="19"/>
       <c r="Y160" s="14" t="s">
@@ -7633,9 +7264,6 @@
       <c r="U161" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V161" s="1">
-        <v>1</v>
-      </c>
       <c r="W161" s="19"/>
       <c r="X161" s="19"/>
       <c r="Y161" s="12" t="s">
@@ -7673,9 +7301,6 @@
       <c r="U162" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V162" s="1">
-        <v>1</v>
-      </c>
       <c r="W162" s="19"/>
       <c r="X162" s="19"/>
       <c r="Y162" s="12" t="s">
@@ -7713,9 +7338,6 @@
       <c r="U163" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V163" s="1">
-        <v>1</v>
-      </c>
       <c r="W163" s="19"/>
       <c r="X163" s="19"/>
       <c r="Y163" s="12" t="s">
@@ -7753,9 +7375,6 @@
       <c r="U164" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V164" s="1">
-        <v>1</v>
-      </c>
       <c r="W164" s="19"/>
       <c r="X164" s="19"/>
       <c r="Y164" s="12" t="s">
@@ -7793,9 +7412,6 @@
       <c r="U165" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V165" s="1">
-        <v>1</v>
-      </c>
       <c r="W165" s="19"/>
       <c r="X165" s="19"/>
       <c r="Y165" s="12" t="s">
@@ -7833,9 +7449,6 @@
       <c r="U166" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V166" s="1">
-        <v>1</v>
-      </c>
       <c r="W166" s="19"/>
       <c r="X166" s="19"/>
       <c r="Y166" s="12" t="s">
@@ -7873,9 +7486,6 @@
       <c r="U167" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V167" s="1">
-        <v>1</v>
-      </c>
       <c r="W167" s="19"/>
       <c r="X167" s="19"/>
       <c r="Y167" s="12" t="s">
@@ -7913,9 +7523,6 @@
       <c r="U168" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V168" s="1">
-        <v>1</v>
-      </c>
       <c r="W168" s="19"/>
       <c r="X168" s="19"/>
       <c r="Y168" s="12" t="s">
@@ -7953,9 +7560,6 @@
       <c r="U169" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V169" s="1">
-        <v>1</v>
-      </c>
       <c r="W169" s="19"/>
       <c r="X169" s="19"/>
       <c r="Y169" s="12" t="s">
@@ -7993,9 +7597,6 @@
       <c r="U170" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V170" s="1">
-        <v>1</v>
-      </c>
       <c r="W170" s="19"/>
       <c r="X170" s="19"/>
       <c r="Y170" s="12" t="s">
@@ -8033,9 +7634,6 @@
       <c r="U171" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V171" s="1">
-        <v>1</v>
-      </c>
       <c r="W171" s="19"/>
       <c r="X171" s="19"/>
       <c r="Y171" s="12" t="s">
@@ -8073,9 +7671,6 @@
       <c r="U172" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V172" s="1">
-        <v>1</v>
-      </c>
       <c r="W172" s="19"/>
       <c r="X172" s="19"/>
       <c r="Y172" s="14" t="s">
@@ -8113,9 +7708,6 @@
       <c r="U173" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V173" s="1">
-        <v>1</v>
-      </c>
       <c r="W173" s="19"/>
       <c r="X173" s="19"/>
       <c r="Y173" s="14" t="s">
@@ -8153,9 +7745,6 @@
       <c r="U174" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V174" s="1">
-        <v>1</v>
-      </c>
       <c r="W174" s="19"/>
       <c r="X174" s="19"/>
       <c r="Y174" s="14" t="s">
@@ -8193,9 +7782,6 @@
       <c r="U175" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V175" s="1">
-        <v>1</v>
-      </c>
       <c r="W175" s="19"/>
       <c r="X175" s="19"/>
       <c r="Y175" s="14" t="s">
@@ -8233,9 +7819,6 @@
       <c r="U176" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V176" s="1">
-        <v>1</v>
-      </c>
       <c r="W176" s="19"/>
       <c r="X176" s="19"/>
       <c r="Y176" s="14" t="s">
@@ -8273,9 +7856,6 @@
       <c r="U177" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V177" s="1">
-        <v>1</v>
-      </c>
       <c r="W177" s="19"/>
       <c r="X177" s="19"/>
       <c r="Y177" s="14" t="s">
@@ -8313,9 +7893,6 @@
       <c r="U178" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V178" s="1">
-        <v>1</v>
-      </c>
       <c r="W178" s="19"/>
       <c r="X178" s="19"/>
       <c r="Y178" s="14" t="s">
@@ -8353,9 +7930,6 @@
       <c r="U179" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V179" s="1">
-        <v>1</v>
-      </c>
       <c r="W179" s="19"/>
       <c r="X179" s="19"/>
       <c r="Y179" s="14" t="s">
@@ -8393,9 +7967,6 @@
       <c r="U180" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V180" s="1">
-        <v>1</v>
-      </c>
       <c r="W180" s="19"/>
       <c r="X180" s="19"/>
       <c r="Y180" s="14" t="s">
@@ -8433,9 +8004,6 @@
       <c r="U181" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V181" s="1">
-        <v>1</v>
-      </c>
       <c r="W181" s="19"/>
       <c r="X181" s="19"/>
       <c r="Y181" s="14" t="s">
@@ -8473,9 +8041,6 @@
       <c r="U182" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V182" s="1">
-        <v>1</v>
-      </c>
       <c r="W182" s="19"/>
       <c r="X182" s="19"/>
       <c r="Y182" s="14" t="s">
@@ -8513,9 +8078,6 @@
       <c r="U183" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V183" s="1">
-        <v>1</v>
-      </c>
       <c r="W183" s="19"/>
       <c r="X183" s="19"/>
       <c r="Y183" s="14" t="s">
@@ -8553,9 +8115,6 @@
       <c r="U184" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V184" s="1">
-        <v>1</v>
-      </c>
       <c r="W184" s="19"/>
       <c r="X184" s="19"/>
       <c r="Y184" s="14" t="s">
@@ -8593,9 +8152,6 @@
       <c r="U185" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V185" s="1">
-        <v>1</v>
-      </c>
       <c r="W185" s="19"/>
       <c r="X185" s="19"/>
       <c r="Y185" s="14" t="s">
@@ -8633,9 +8189,6 @@
       <c r="U186" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V186" s="1">
-        <v>1</v>
-      </c>
       <c r="W186" s="19"/>
       <c r="X186" s="19"/>
       <c r="Y186" s="14" t="s">
@@ -8673,9 +8226,6 @@
       <c r="U187" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V187" s="1">
-        <v>1</v>
-      </c>
       <c r="W187" s="19"/>
       <c r="X187" s="19"/>
       <c r="Y187" s="14" t="s">
@@ -8713,9 +8263,6 @@
       <c r="U188" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V188" s="1">
-        <v>1</v>
-      </c>
       <c r="W188" s="19"/>
       <c r="X188" s="19"/>
       <c r="Y188" s="14" t="s">
@@ -8753,9 +8300,6 @@
       <c r="U189" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V189" s="1">
-        <v>1</v>
-      </c>
       <c r="W189" s="19"/>
       <c r="X189" s="19"/>
       <c r="Y189" s="14" t="s">
@@ -8793,9 +8337,6 @@
       <c r="U190" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V190" s="1">
-        <v>1</v>
-      </c>
       <c r="W190" s="19"/>
       <c r="X190" s="19"/>
       <c r="Y190" s="14" t="s">
@@ -8833,9 +8374,6 @@
       <c r="U191" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V191" s="1">
-        <v>1</v>
-      </c>
       <c r="W191" s="19"/>
       <c r="X191" s="19"/>
       <c r="Y191" s="14" t="s">
@@ -8873,9 +8411,6 @@
       <c r="U192" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V192" s="1">
-        <v>1</v>
-      </c>
       <c r="W192" s="19"/>
       <c r="X192" s="19"/>
       <c r="Y192" s="14" t="s">
@@ -8913,9 +8448,6 @@
       <c r="U193" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V193" s="1">
-        <v>1</v>
-      </c>
       <c r="W193" s="19"/>
       <c r="X193" s="19"/>
       <c r="Y193" s="14" t="s">
@@ -8953,9 +8485,6 @@
       <c r="U194" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V194" s="1">
-        <v>1</v>
-      </c>
       <c r="W194" s="19"/>
       <c r="X194" s="19"/>
       <c r="Y194" s="14" t="s">
@@ -8993,9 +8522,6 @@
       <c r="U195" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V195" s="1">
-        <v>1</v>
-      </c>
       <c r="W195" s="19"/>
       <c r="X195" s="19"/>
       <c r="Y195" s="14" t="s">
@@ -9033,9 +8559,6 @@
       <c r="U196" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V196" s="1">
-        <v>1</v>
-      </c>
       <c r="W196" s="19"/>
       <c r="X196" s="19"/>
       <c r="Y196" s="14" t="s">
@@ -9073,9 +8596,6 @@
       <c r="U197" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V197" s="1">
-        <v>1</v>
-      </c>
       <c r="W197" s="19"/>
       <c r="X197" s="19"/>
       <c r="Y197" s="14" t="s">
@@ -9113,9 +8633,6 @@
       <c r="U198" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V198" s="1">
-        <v>1</v>
-      </c>
       <c r="W198" s="19"/>
       <c r="X198" s="19"/>
       <c r="Y198" s="14" t="s">
@@ -9153,9 +8670,6 @@
       <c r="U199" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V199" s="1">
-        <v>1</v>
-      </c>
       <c r="W199" s="19"/>
       <c r="X199" s="19"/>
       <c r="Y199" s="14" t="s">
@@ -9193,9 +8707,6 @@
       <c r="U200" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V200" s="1">
-        <v>1</v>
-      </c>
       <c r="W200" s="19"/>
       <c r="X200" s="19"/>
       <c r="Y200" s="14" t="s">
@@ -9233,9 +8744,6 @@
       <c r="U201" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V201" s="1">
-        <v>1</v>
-      </c>
       <c r="W201" s="19"/>
       <c r="X201" s="19"/>
       <c r="Y201" s="14" t="s">
@@ -9273,9 +8781,6 @@
       <c r="U202" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V202" s="1">
-        <v>1</v>
-      </c>
       <c r="W202" s="19"/>
       <c r="X202" s="19"/>
       <c r="Y202" s="14" t="s">
@@ -9313,9 +8818,6 @@
       <c r="U203" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V203" s="1">
-        <v>1</v>
-      </c>
       <c r="W203" s="19"/>
       <c r="X203" s="19"/>
       <c r="Y203" s="14" t="s">
@@ -9353,9 +8855,6 @@
       <c r="U204" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V204" s="1">
-        <v>1</v>
-      </c>
       <c r="W204" s="19"/>
       <c r="X204" s="19"/>
       <c r="Y204" s="14" t="s">
@@ -9393,9 +8892,6 @@
       <c r="U205" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V205" s="1">
-        <v>1</v>
-      </c>
       <c r="W205" s="19"/>
       <c r="X205" s="19"/>
       <c r="Y205" s="14" t="s">
@@ -9433,9 +8929,6 @@
       <c r="U206" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V206" s="1">
-        <v>1</v>
-      </c>
       <c r="W206" s="19"/>
       <c r="X206" s="19"/>
       <c r="Y206" s="14" t="s">
@@ -9473,9 +8966,6 @@
       <c r="U207" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V207" s="1">
-        <v>1</v>
-      </c>
       <c r="W207" s="19"/>
       <c r="X207" s="19"/>
       <c r="Y207" s="14" t="s">
@@ -9512,9 +9002,6 @@
       </c>
       <c r="U208" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="V208" s="1">
-        <v>1</v>
       </c>
       <c r="W208" s="19"/>
       <c r="X208" s="19"/>

--- a/table_itajai_test.xlsx
+++ b/table_itajai_test.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdminDell\Desktop\AUTOMATIZACAO_DIALUX_ITAJAI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdminDell\Desktop\Fast_PPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC96DA4-96EC-4124-85D8-277CEFBC8774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74109CF-658F-480C-A80B-2A1167F7DE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RIAN - V4P4" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'RIAN - V4P4'!$A$1:$AC$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'RIAN - V4P4'!$A$1:$AD$1</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="153">
   <si>
     <t>Quantidade Material 17</t>
   </si>
@@ -479,6 +479,9 @@
   </si>
   <si>
     <t>3.3</t>
+  </si>
+  <si>
+    <t>luminaria_antiga</t>
   </si>
 </sst>
 </file>
@@ -917,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AC208"/>
+  <dimension ref="A1:AD208"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -934,13 +937,13 @@
     <col min="16" max="19" width="12.6640625" style="1"/>
     <col min="20" max="20" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.6640625" style="1"/>
-    <col min="23" max="23" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="12.6640625" style="1"/>
-    <col min="27" max="27" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="12.6640625" style="1"/>
+    <col min="24" max="24" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="12.6640625" style="1"/>
+    <col min="28" max="28" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" s="6" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -1008,33 +1011,36 @@
         <v>52</v>
       </c>
       <c r="W1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="X1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>12</v>
+      <c r="B2" s="7">
+        <v>9</v>
       </c>
       <c r="C2" s="7">
         <v>2</v>
@@ -1045,8 +1051,8 @@
       <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="7" t="s">
-        <v>76</v>
+      <c r="P2" s="7">
+        <v>38</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>21</v>
@@ -1066,16 +1072,19 @@
       <c r="V2" s="1">
         <v>1</v>
       </c>
-      <c r="W2" s="19"/>
+      <c r="W2" s="7">
+        <v>70</v>
+      </c>
       <c r="X2" s="19"/>
-      <c r="Y2" s="12" t="s">
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z2" s="13" t="s">
+      <c r="AA2" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>9</v>
       </c>
@@ -1112,16 +1121,19 @@
       <c r="V3" s="1">
         <v>1</v>
       </c>
-      <c r="W3" s="19"/>
+      <c r="W3" s="8">
+        <v>70</v>
+      </c>
       <c r="X3" s="19"/>
-      <c r="Y3" s="12" t="s">
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z3" s="13" t="s">
+      <c r="AA3" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>16</v>
       </c>
@@ -1158,16 +1170,19 @@
       <c r="V4" s="1">
         <v>1</v>
       </c>
-      <c r="W4" s="19"/>
+      <c r="W4" s="9">
+        <v>250</v>
+      </c>
       <c r="X4" s="19"/>
-      <c r="Y4" s="12" t="s">
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z4" s="13" t="s">
+      <c r="AA4" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>26</v>
       </c>
@@ -1204,16 +1219,19 @@
       <c r="V5" s="1">
         <v>1</v>
       </c>
-      <c r="W5" s="19"/>
+      <c r="W5" s="8">
+        <v>150</v>
+      </c>
       <c r="X5" s="19"/>
-      <c r="Y5" s="12" t="s">
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z5" s="13" t="s">
+      <c r="AA5" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>27</v>
       </c>
@@ -1250,16 +1268,19 @@
       <c r="V6" s="1">
         <v>1</v>
       </c>
-      <c r="W6" s="19"/>
+      <c r="W6" s="9">
+        <v>250</v>
+      </c>
       <c r="X6" s="19"/>
-      <c r="Y6" s="12" t="s">
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z6" s="13" t="s">
+      <c r="AA6" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>34</v>
       </c>
@@ -1296,16 +1317,19 @@
       <c r="V7" s="1">
         <v>1</v>
       </c>
-      <c r="W7" s="19"/>
+      <c r="W7" s="8">
+        <v>250</v>
+      </c>
       <c r="X7" s="19"/>
-      <c r="Y7" s="12" t="s">
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z7" s="13" t="s">
+      <c r="AA7" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>36</v>
       </c>
@@ -1342,16 +1366,19 @@
       <c r="V8" s="1">
         <v>1</v>
       </c>
-      <c r="W8" s="19"/>
+      <c r="W8" s="9">
+        <v>250</v>
+      </c>
       <c r="X8" s="19"/>
-      <c r="Y8" s="12" t="s">
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z8" s="13" t="s">
+      <c r="AA8" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>51</v>
       </c>
@@ -1388,16 +1415,19 @@
       <c r="V9" s="1">
         <v>1</v>
       </c>
-      <c r="W9" s="19"/>
+      <c r="W9" s="8">
+        <v>250</v>
+      </c>
       <c r="X9" s="19"/>
-      <c r="Y9" s="12" t="s">
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z9" s="13" t="s">
+      <c r="AA9" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>59</v>
       </c>
@@ -1434,16 +1464,19 @@
       <c r="V10" s="1">
         <v>1</v>
       </c>
-      <c r="W10" s="19"/>
+      <c r="W10" s="9">
+        <v>150</v>
+      </c>
       <c r="X10" s="19"/>
-      <c r="Y10" s="14" t="s">
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z10" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA10" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>60</v>
       </c>
@@ -1480,16 +1513,19 @@
       <c r="V11" s="1">
         <v>1</v>
       </c>
-      <c r="W11" s="19"/>
+      <c r="W11" s="8">
+        <v>150</v>
+      </c>
       <c r="X11" s="19"/>
-      <c r="Y11" s="14" t="s">
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z11" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA11" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>68</v>
       </c>
@@ -1526,16 +1562,19 @@
       <c r="V12" s="1">
         <v>1</v>
       </c>
-      <c r="W12" s="19"/>
+      <c r="W12" s="9">
+        <v>150</v>
+      </c>
       <c r="X12" s="19"/>
-      <c r="Y12" s="13" t="s">
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z12" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA12" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>69</v>
       </c>
@@ -1572,16 +1611,19 @@
       <c r="V13" s="1">
         <v>1</v>
       </c>
-      <c r="W13" s="19"/>
+      <c r="W13" s="8">
+        <v>150</v>
+      </c>
       <c r="X13" s="19"/>
-      <c r="Y13" s="13" t="s">
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z13" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA13" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>77</v>
       </c>
@@ -1618,16 +1660,19 @@
       <c r="V14" s="1">
         <v>1</v>
       </c>
-      <c r="W14" s="19"/>
+      <c r="W14" s="9">
+        <v>150</v>
+      </c>
       <c r="X14" s="19"/>
-      <c r="Y14" s="13" t="s">
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z14" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA14" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>80</v>
       </c>
@@ -1664,16 +1709,19 @@
       <c r="V15" s="1">
         <v>1</v>
       </c>
-      <c r="W15" s="19"/>
+      <c r="W15" s="8">
+        <v>150</v>
+      </c>
       <c r="X15" s="19"/>
-      <c r="Y15" s="13" t="s">
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z15" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA15" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>84</v>
       </c>
@@ -1710,16 +1758,19 @@
       <c r="V16" s="1">
         <v>1</v>
       </c>
-      <c r="W16" s="19"/>
+      <c r="W16" s="9">
+        <v>150</v>
+      </c>
       <c r="X16" s="19"/>
-      <c r="Y16" s="13" t="s">
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z16" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA16" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>85</v>
       </c>
@@ -1756,16 +1807,19 @@
       <c r="V17" s="1">
         <v>1</v>
       </c>
-      <c r="W17" s="19"/>
+      <c r="W17" s="8">
+        <v>150</v>
+      </c>
       <c r="X17" s="19"/>
-      <c r="Y17" s="13" t="s">
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z17" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA17" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>89</v>
       </c>
@@ -1802,16 +1856,19 @@
       <c r="V18" s="1">
         <v>1</v>
       </c>
-      <c r="W18" s="19"/>
+      <c r="W18" s="9">
+        <v>150</v>
+      </c>
       <c r="X18" s="19"/>
-      <c r="Y18" s="13" t="s">
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z18" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA18" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>93</v>
       </c>
@@ -1848,16 +1905,19 @@
       <c r="V19" s="1">
         <v>1</v>
       </c>
-      <c r="W19" s="19"/>
+      <c r="W19" s="8">
+        <v>150</v>
+      </c>
       <c r="X19" s="19"/>
-      <c r="Y19" s="13" t="s">
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z19" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA19" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>95</v>
       </c>
@@ -1894,16 +1954,19 @@
       <c r="V20" s="1">
         <v>1</v>
       </c>
-      <c r="W20" s="20"/>
+      <c r="W20" s="9">
+        <v>130</v>
+      </c>
       <c r="X20" s="20"/>
-      <c r="Y20" s="13" t="s">
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z20" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA20" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>99</v>
       </c>
@@ -1940,16 +2003,19 @@
       <c r="V21" s="1">
         <v>1</v>
       </c>
-      <c r="W21" s="20"/>
+      <c r="W21" s="8">
+        <v>150</v>
+      </c>
       <c r="X21" s="20"/>
-      <c r="Y21" s="13" t="s">
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z21" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA21" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>101</v>
       </c>
@@ -1986,16 +2052,19 @@
       <c r="V22" s="1">
         <v>1</v>
       </c>
-      <c r="W22" s="20"/>
+      <c r="W22" s="9">
+        <v>150</v>
+      </c>
       <c r="X22" s="20"/>
-      <c r="Y22" s="13" t="s">
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z22" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA22" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>105</v>
       </c>
@@ -2032,16 +2101,19 @@
       <c r="V23" s="1">
         <v>1</v>
       </c>
-      <c r="W23" s="20"/>
+      <c r="W23" s="8">
+        <v>150</v>
+      </c>
       <c r="X23" s="20"/>
-      <c r="Y23" s="13" t="s">
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z23" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA23" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>109</v>
       </c>
@@ -2078,16 +2150,19 @@
       <c r="V24" s="1">
         <v>1</v>
       </c>
-      <c r="W24" s="20"/>
+      <c r="W24" s="9">
+        <v>150</v>
+      </c>
       <c r="X24" s="20"/>
-      <c r="Y24" s="13" t="s">
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z24" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA24" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>112</v>
       </c>
@@ -2124,16 +2199,19 @@
       <c r="V25" s="1">
         <v>1</v>
       </c>
-      <c r="W25" s="20"/>
+      <c r="W25" s="8">
+        <v>150</v>
+      </c>
       <c r="X25" s="20"/>
-      <c r="Y25" s="12" t="s">
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z25" s="13" t="s">
+      <c r="AA25" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>115</v>
       </c>
@@ -2170,16 +2248,19 @@
       <c r="V26" s="1">
         <v>1</v>
       </c>
-      <c r="W26" s="20"/>
+      <c r="W26" s="9">
+        <v>150</v>
+      </c>
       <c r="X26" s="20"/>
-      <c r="Y26" s="12" t="s">
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z26" s="13" t="s">
+      <c r="AA26" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>119</v>
       </c>
@@ -2216,16 +2297,19 @@
       <c r="V27" s="1">
         <v>1</v>
       </c>
-      <c r="W27" s="20"/>
+      <c r="W27" s="8">
+        <v>70</v>
+      </c>
       <c r="X27" s="20"/>
-      <c r="Y27" s="12" t="s">
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z27" s="13" t="s">
+      <c r="AA27" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>120</v>
       </c>
@@ -2262,16 +2346,19 @@
       <c r="V28" s="1">
         <v>1</v>
       </c>
-      <c r="W28" s="20"/>
+      <c r="W28" s="9">
+        <v>150</v>
+      </c>
       <c r="X28" s="20"/>
-      <c r="Y28" s="14" t="s">
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z28" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA28" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>126</v>
       </c>
@@ -2308,16 +2395,19 @@
       <c r="V29" s="1">
         <v>1</v>
       </c>
-      <c r="W29" s="20"/>
+      <c r="W29" s="8">
+        <v>150</v>
+      </c>
       <c r="X29" s="20"/>
-      <c r="Y29" s="14" t="s">
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z29" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA29" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>128</v>
       </c>
@@ -2354,16 +2444,19 @@
       <c r="V30" s="1">
         <v>1</v>
       </c>
-      <c r="W30" s="20"/>
+      <c r="W30" s="9">
+        <v>150</v>
+      </c>
       <c r="X30" s="20"/>
-      <c r="Y30" s="14" t="s">
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z30" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA30" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>132</v>
       </c>
@@ -2400,16 +2493,19 @@
       <c r="V31" s="1">
         <v>1</v>
       </c>
-      <c r="W31" s="20"/>
+      <c r="W31" s="8">
+        <v>150</v>
+      </c>
       <c r="X31" s="20"/>
-      <c r="Y31" s="14" t="s">
+      <c r="Y31" s="20"/>
+      <c r="Z31" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z31" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA31" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>133</v>
       </c>
@@ -2446,16 +2542,19 @@
       <c r="V32" s="1">
         <v>1</v>
       </c>
-      <c r="W32" s="20"/>
+      <c r="W32" s="9">
+        <v>150</v>
+      </c>
       <c r="X32" s="20"/>
-      <c r="Y32" s="14" t="s">
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z32" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA32" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>136</v>
       </c>
@@ -2492,16 +2591,19 @@
       <c r="V33" s="1">
         <v>1</v>
       </c>
-      <c r="W33" s="20"/>
+      <c r="W33" s="8">
+        <v>150</v>
+      </c>
       <c r="X33" s="20"/>
-      <c r="Y33" s="14" t="s">
+      <c r="Y33" s="20"/>
+      <c r="Z33" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z33" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA33" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>140</v>
       </c>
@@ -2538,16 +2640,19 @@
       <c r="V34" s="1">
         <v>1</v>
       </c>
-      <c r="W34" s="20"/>
+      <c r="W34" s="9">
+        <v>150</v>
+      </c>
       <c r="X34" s="20"/>
-      <c r="Y34" s="14" t="s">
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z34" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA34" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>142</v>
       </c>
@@ -2584,16 +2689,19 @@
       <c r="V35" s="1">
         <v>1</v>
       </c>
-      <c r="W35" s="20"/>
+      <c r="W35" s="8">
+        <v>150</v>
+      </c>
       <c r="X35" s="20"/>
-      <c r="Y35" s="14" t="s">
+      <c r="Y35" s="20"/>
+      <c r="Z35" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z35" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA35" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>144</v>
       </c>
@@ -2630,16 +2738,19 @@
       <c r="V36" s="1">
         <v>1</v>
       </c>
-      <c r="W36" s="20"/>
+      <c r="W36" s="9">
+        <v>150</v>
+      </c>
       <c r="X36" s="20"/>
-      <c r="Y36" s="14" t="s">
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z36" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA36" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>148</v>
       </c>
@@ -2676,16 +2787,19 @@
       <c r="V37" s="1">
         <v>1</v>
       </c>
-      <c r="W37" s="20"/>
+      <c r="W37" s="8">
+        <v>150</v>
+      </c>
       <c r="X37" s="20"/>
-      <c r="Y37" s="14" t="s">
+      <c r="Y37" s="20"/>
+      <c r="Z37" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z37" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA37" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="9" t="s">
         <v>65</v>
       </c>
@@ -2713,16 +2827,19 @@
       <c r="U38" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W38" s="20"/>
+      <c r="W38" s="9">
+        <v>150</v>
+      </c>
       <c r="X38" s="20"/>
-      <c r="Y38" s="14" t="s">
+      <c r="Y38" s="20"/>
+      <c r="Z38" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z38" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA38" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>13</v>
       </c>
@@ -2750,16 +2867,19 @@
       <c r="U39" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W39" s="20"/>
+      <c r="W39" s="8">
+        <v>70</v>
+      </c>
       <c r="X39" s="20"/>
-      <c r="Y39" s="12" t="s">
+      <c r="Y39" s="20"/>
+      <c r="Z39" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z39" s="13" t="s">
+      <c r="AA39" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="9" t="s">
         <v>65</v>
       </c>
@@ -2787,16 +2907,19 @@
       <c r="U40" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W40" s="20"/>
+      <c r="W40" s="9">
+        <v>150</v>
+      </c>
       <c r="X40" s="20"/>
-      <c r="Y40" s="14" t="s">
+      <c r="Y40" s="20"/>
+      <c r="Z40" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z40" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA40" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>65</v>
       </c>
@@ -2824,16 +2947,19 @@
       <c r="U41" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W41" s="20"/>
+      <c r="W41" s="8">
+        <v>100</v>
+      </c>
       <c r="X41" s="20"/>
-      <c r="Y41" s="14" t="s">
+      <c r="Y41" s="20"/>
+      <c r="Z41" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z41" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA41" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="9" t="s">
         <v>13</v>
       </c>
@@ -2861,16 +2987,19 @@
       <c r="U42" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W42" s="20"/>
+      <c r="W42" s="9">
+        <v>70</v>
+      </c>
       <c r="X42" s="20"/>
-      <c r="Y42" s="12" t="s">
+      <c r="Y42" s="20"/>
+      <c r="Z42" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z42" s="13" t="s">
+      <c r="AA42" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>13</v>
       </c>
@@ -2898,16 +3027,19 @@
       <c r="U43" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W43" s="20"/>
+      <c r="W43" s="8">
+        <v>70</v>
+      </c>
       <c r="X43" s="20"/>
-      <c r="Y43" s="12" t="s">
+      <c r="Y43" s="20"/>
+      <c r="Z43" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z43" s="13" t="s">
+      <c r="AA43" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="9" t="s">
         <v>13</v>
       </c>
@@ -2935,16 +3067,19 @@
       <c r="U44" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W44" s="20"/>
+      <c r="W44" s="9">
+        <v>150</v>
+      </c>
       <c r="X44" s="20"/>
-      <c r="Y44" s="12" t="s">
+      <c r="Y44" s="20"/>
+      <c r="Z44" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z44" s="13" t="s">
+      <c r="AA44" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>44</v>
       </c>
@@ -2972,16 +3107,19 @@
       <c r="U45" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W45" s="20"/>
+      <c r="W45" s="8">
+        <v>70</v>
+      </c>
       <c r="X45" s="20"/>
-      <c r="Y45" s="12" t="s">
+      <c r="Y45" s="20"/>
+      <c r="Z45" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z45" s="13" t="s">
+      <c r="AA45" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="9" t="s">
         <v>43</v>
       </c>
@@ -3009,16 +3147,19 @@
       <c r="U46" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W46" s="20"/>
+      <c r="W46" s="9">
+        <v>150</v>
+      </c>
       <c r="X46" s="20"/>
-      <c r="Y46" s="12" t="s">
+      <c r="Y46" s="20"/>
+      <c r="Z46" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z46" s="13" t="s">
+      <c r="AA46" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>44</v>
       </c>
@@ -3046,16 +3187,19 @@
       <c r="U47" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W47" s="20"/>
+      <c r="W47" s="8">
+        <v>70</v>
+      </c>
       <c r="X47" s="20"/>
-      <c r="Y47" s="12" t="s">
+      <c r="Y47" s="20"/>
+      <c r="Z47" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z47" s="13" t="s">
+      <c r="AA47" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="9" t="s">
         <v>43</v>
       </c>
@@ -3083,16 +3227,19 @@
       <c r="U48" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W48" s="20"/>
+      <c r="W48" s="9">
+        <v>250</v>
+      </c>
       <c r="X48" s="20"/>
-      <c r="Y48" s="12" t="s">
+      <c r="Y48" s="20"/>
+      <c r="Z48" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z48" s="13" t="s">
+      <c r="AA48" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>22</v>
       </c>
@@ -3120,16 +3267,19 @@
       <c r="U49" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W49" s="20"/>
+      <c r="W49" s="8">
+        <v>70</v>
+      </c>
       <c r="X49" s="20"/>
-      <c r="Y49" s="12" t="s">
+      <c r="Y49" s="20"/>
+      <c r="Z49" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z49" s="13" t="s">
+      <c r="AA49" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="9" t="s">
         <v>13</v>
       </c>
@@ -3157,16 +3307,19 @@
       <c r="U50" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="W50" s="20"/>
+      <c r="W50" s="9">
+        <v>250</v>
+      </c>
       <c r="X50" s="20"/>
-      <c r="Y50" s="12" t="s">
+      <c r="Y50" s="20"/>
+      <c r="Z50" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z50" s="13" t="s">
+      <c r="AA50" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>13</v>
       </c>
@@ -3194,16 +3347,19 @@
       <c r="U51" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W51" s="20"/>
+      <c r="W51" s="8">
+        <v>250</v>
+      </c>
       <c r="X51" s="20"/>
-      <c r="Y51" s="12" t="s">
+      <c r="Y51" s="20"/>
+      <c r="Z51" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z51" s="13" t="s">
+      <c r="AA51" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="9" t="s">
         <v>12</v>
       </c>
@@ -3231,16 +3387,19 @@
       <c r="U52" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W52" s="20"/>
+      <c r="W52" s="9">
+        <v>70</v>
+      </c>
       <c r="X52" s="20"/>
-      <c r="Y52" s="12" t="s">
+      <c r="Y52" s="20"/>
+      <c r="Z52" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z52" s="13" t="s">
+      <c r="AA52" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>43</v>
       </c>
@@ -3268,16 +3427,19 @@
       <c r="U53" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="W53" s="20"/>
+      <c r="W53" s="8">
+        <v>150</v>
+      </c>
       <c r="X53" s="20"/>
-      <c r="Y53" s="12" t="s">
+      <c r="Y53" s="20"/>
+      <c r="Z53" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z53" s="13" t="s">
+      <c r="AA53" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="9" t="s">
         <v>13</v>
       </c>
@@ -3305,16 +3467,19 @@
       <c r="U54" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W54" s="20"/>
+      <c r="W54" s="9">
+        <v>250</v>
+      </c>
       <c r="X54" s="20"/>
-      <c r="Y54" s="12" t="s">
+      <c r="Y54" s="20"/>
+      <c r="Z54" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z54" s="13" t="s">
+      <c r="AA54" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>70</v>
       </c>
@@ -3342,16 +3507,19 @@
       <c r="U55" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W55" s="20"/>
+      <c r="W55" s="8">
+        <v>150</v>
+      </c>
       <c r="X55" s="20"/>
-      <c r="Y55" s="14" t="s">
+      <c r="Y55" s="20"/>
+      <c r="Z55" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z55" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA55" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="9" t="s">
         <v>65</v>
       </c>
@@ -3379,16 +3547,19 @@
       <c r="U56" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W56" s="20"/>
+      <c r="W56" s="9">
+        <v>150</v>
+      </c>
       <c r="X56" s="20"/>
-      <c r="Y56" s="14" t="s">
+      <c r="Y56" s="20"/>
+      <c r="Z56" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z56" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="57" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA56" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>71</v>
       </c>
@@ -3416,16 +3587,19 @@
       <c r="U57" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W57" s="20"/>
+      <c r="W57" s="8">
+        <v>150</v>
+      </c>
       <c r="X57" s="20"/>
-      <c r="Y57" s="12" t="s">
+      <c r="Y57" s="20"/>
+      <c r="Z57" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z57" s="13" t="s">
+      <c r="AA57" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="9" t="s">
         <v>13</v>
       </c>
@@ -3453,16 +3627,19 @@
       <c r="U58" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W58" s="20"/>
+      <c r="W58" s="9">
+        <v>150</v>
+      </c>
       <c r="X58" s="20"/>
-      <c r="Y58" s="12" t="s">
+      <c r="Y58" s="20"/>
+      <c r="Z58" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z58" s="13" t="s">
+      <c r="AA58" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>72</v>
       </c>
@@ -3490,16 +3667,19 @@
       <c r="U59" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W59" s="20"/>
+      <c r="W59" s="8">
+        <v>250</v>
+      </c>
       <c r="X59" s="20"/>
-      <c r="Y59" s="12" t="s">
+      <c r="Y59" s="20"/>
+      <c r="Z59" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z59" s="13" t="s">
+      <c r="AA59" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="9" t="s">
         <v>12</v>
       </c>
@@ -3527,16 +3707,19 @@
       <c r="U60" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="W60" s="20"/>
+      <c r="W60" s="9">
+        <v>150</v>
+      </c>
       <c r="X60" s="20"/>
-      <c r="Y60" s="13" t="s">
+      <c r="Y60" s="20"/>
+      <c r="Z60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z60" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="61" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA60" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>12</v>
       </c>
@@ -3564,16 +3747,19 @@
       <c r="U61" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="W61" s="20"/>
+      <c r="W61" s="8">
+        <v>150</v>
+      </c>
       <c r="X61" s="20"/>
-      <c r="Y61" s="13" t="s">
+      <c r="Y61" s="20"/>
+      <c r="Z61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z61" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA61" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="9" t="s">
         <v>12</v>
       </c>
@@ -3601,16 +3787,19 @@
       <c r="U62" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="W62" s="20"/>
+      <c r="W62" s="9">
+        <v>150</v>
+      </c>
       <c r="X62" s="20"/>
-      <c r="Y62" s="13" t="s">
+      <c r="Y62" s="20"/>
+      <c r="Z62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z62" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA62" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>12</v>
       </c>
@@ -3638,16 +3827,19 @@
       <c r="U63" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="W63" s="20"/>
+      <c r="W63" s="8">
+        <v>150</v>
+      </c>
       <c r="X63" s="20"/>
-      <c r="Y63" s="13" t="s">
+      <c r="Y63" s="20"/>
+      <c r="Z63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z63" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA63" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="9" t="s">
         <v>12</v>
       </c>
@@ -3675,16 +3867,19 @@
       <c r="U64" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="W64" s="20"/>
+      <c r="W64" s="9">
+        <v>150</v>
+      </c>
       <c r="X64" s="20"/>
-      <c r="Y64" s="13" t="s">
+      <c r="Y64" s="20"/>
+      <c r="Z64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z64" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA64" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>12</v>
       </c>
@@ -3712,16 +3907,19 @@
       <c r="U65" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="W65" s="20"/>
+      <c r="W65" s="8">
+        <v>150</v>
+      </c>
       <c r="X65" s="20"/>
-      <c r="Y65" s="13" t="s">
+      <c r="Y65" s="20"/>
+      <c r="Z65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z65" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="66" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA65" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="9" t="s">
         <v>12</v>
       </c>
@@ -3749,16 +3947,19 @@
       <c r="U66" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="W66" s="20"/>
+      <c r="W66" s="9">
+        <v>150</v>
+      </c>
       <c r="X66" s="20"/>
-      <c r="Y66" s="13" t="s">
+      <c r="Y66" s="20"/>
+      <c r="Z66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z66" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="67" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA66" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>12</v>
       </c>
@@ -3786,16 +3987,19 @@
       <c r="U67" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="W67" s="20"/>
+      <c r="W67" s="8">
+        <v>150</v>
+      </c>
       <c r="X67" s="20"/>
-      <c r="Y67" s="13" t="s">
+      <c r="Y67" s="20"/>
+      <c r="Z67" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z67" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="68" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA67" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="9" t="s">
         <v>12</v>
       </c>
@@ -3823,16 +4027,19 @@
       <c r="U68" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="W68" s="20"/>
+      <c r="W68" s="9">
+        <v>150</v>
+      </c>
       <c r="X68" s="20"/>
-      <c r="Y68" s="13" t="s">
+      <c r="Y68" s="20"/>
+      <c r="Z68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z68" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="69" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA68" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>12</v>
       </c>
@@ -3860,16 +4067,19 @@
       <c r="U69" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="W69" s="20"/>
+      <c r="W69" s="8">
+        <v>150</v>
+      </c>
       <c r="X69" s="20"/>
-      <c r="Y69" s="13" t="s">
+      <c r="Y69" s="20"/>
+      <c r="Z69" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z69" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="70" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA69" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="9" t="s">
         <v>12</v>
       </c>
@@ -3897,16 +4107,19 @@
       <c r="U70" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="W70" s="20"/>
+      <c r="W70" s="9">
+        <v>150</v>
+      </c>
       <c r="X70" s="20"/>
-      <c r="Y70" s="13" t="s">
+      <c r="Y70" s="20"/>
+      <c r="Z70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z70" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="71" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA70" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>12</v>
       </c>
@@ -3934,16 +4147,19 @@
       <c r="U71" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="W71" s="20"/>
+      <c r="W71" s="8">
+        <v>150</v>
+      </c>
       <c r="X71" s="20"/>
-      <c r="Y71" s="13" t="s">
+      <c r="Y71" s="20"/>
+      <c r="Z71" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z71" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="72" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA71" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="9" t="s">
         <v>12</v>
       </c>
@@ -3971,16 +4187,19 @@
       <c r="U72" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="W72" s="20"/>
+      <c r="W72" s="9">
+        <v>150</v>
+      </c>
       <c r="X72" s="20"/>
-      <c r="Y72" s="13" t="s">
+      <c r="Y72" s="20"/>
+      <c r="Z72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z72" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="73" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA72" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>12</v>
       </c>
@@ -4008,16 +4227,19 @@
       <c r="U73" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="W73" s="20"/>
+      <c r="W73" s="8">
+        <v>150</v>
+      </c>
       <c r="X73" s="20"/>
-      <c r="Y73" s="13" t="s">
+      <c r="Y73" s="20"/>
+      <c r="Z73" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z73" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="74" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA73" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="9" t="s">
         <v>12</v>
       </c>
@@ -4045,16 +4267,19 @@
       <c r="U74" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="W74" s="20"/>
+      <c r="W74" s="9">
+        <v>150</v>
+      </c>
       <c r="X74" s="20"/>
-      <c r="Y74" s="13" t="s">
+      <c r="Y74" s="20"/>
+      <c r="Z74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z74" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="75" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA74" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>12</v>
       </c>
@@ -4082,16 +4307,19 @@
       <c r="U75" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="W75" s="20"/>
+      <c r="W75" s="8">
+        <v>150</v>
+      </c>
       <c r="X75" s="20"/>
-      <c r="Y75" s="13" t="s">
+      <c r="Y75" s="20"/>
+      <c r="Z75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z75" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="76" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA75" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="9" t="s">
         <v>12</v>
       </c>
@@ -4119,16 +4347,19 @@
       <c r="U76" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="W76" s="20"/>
+      <c r="W76" s="9">
+        <v>150</v>
+      </c>
       <c r="X76" s="20"/>
-      <c r="Y76" s="13" t="s">
+      <c r="Y76" s="20"/>
+      <c r="Z76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z76" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="77" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA76" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>12</v>
       </c>
@@ -4156,16 +4387,19 @@
       <c r="U77" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="W77" s="20"/>
+      <c r="W77" s="8">
+        <v>150</v>
+      </c>
       <c r="X77" s="20"/>
-      <c r="Y77" s="13" t="s">
+      <c r="Y77" s="20"/>
+      <c r="Z77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z77" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="78" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA77" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="9" t="s">
         <v>19</v>
       </c>
@@ -4193,16 +4427,19 @@
       <c r="U78" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W78" s="20"/>
+      <c r="W78" s="9">
+        <v>70</v>
+      </c>
       <c r="X78" s="20"/>
-      <c r="Y78" s="12" t="s">
+      <c r="Y78" s="20"/>
+      <c r="Z78" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z78" s="13" t="s">
+      <c r="AA78" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>65</v>
       </c>
@@ -4230,16 +4467,19 @@
       <c r="U79" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W79" s="20"/>
+      <c r="W79" s="8">
+        <v>70</v>
+      </c>
       <c r="X79" s="20"/>
-      <c r="Y79" s="14" t="s">
+      <c r="Y79" s="20"/>
+      <c r="Z79" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z79" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="80" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA79" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="9" t="s">
         <v>65</v>
       </c>
@@ -4267,16 +4507,19 @@
       <c r="U80" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W80" s="20"/>
+      <c r="W80" s="9">
+        <v>70</v>
+      </c>
       <c r="X80" s="20"/>
-      <c r="Y80" s="14" t="s">
+      <c r="Y80" s="20"/>
+      <c r="Z80" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z80" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="81" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA80" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>65</v>
       </c>
@@ -4304,16 +4547,19 @@
       <c r="U81" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W81" s="20"/>
+      <c r="W81" s="8">
+        <v>70</v>
+      </c>
       <c r="X81" s="20"/>
-      <c r="Y81" s="14" t="s">
+      <c r="Y81" s="20"/>
+      <c r="Z81" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z81" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="82" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA81" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="9" t="s">
         <v>67</v>
       </c>
@@ -4341,16 +4587,19 @@
       <c r="U82" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W82" s="20"/>
+      <c r="W82" s="9">
+        <v>150</v>
+      </c>
       <c r="X82" s="20"/>
-      <c r="Y82" s="14" t="s">
+      <c r="Y82" s="20"/>
+      <c r="Z82" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z82" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="83" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA82" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>67</v>
       </c>
@@ -4378,16 +4627,19 @@
       <c r="U83" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W83" s="20"/>
+      <c r="W83" s="8">
+        <v>150</v>
+      </c>
       <c r="X83" s="20"/>
-      <c r="Y83" s="14" t="s">
+      <c r="Y83" s="20"/>
+      <c r="Z83" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z83" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="84" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA83" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="9" t="s">
         <v>13</v>
       </c>
@@ -4415,16 +4667,19 @@
       <c r="U84" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W84" s="20"/>
+      <c r="W84" s="9">
+        <v>250</v>
+      </c>
       <c r="X84" s="20"/>
-      <c r="Y84" s="12" t="s">
+      <c r="Y84" s="20"/>
+      <c r="Z84" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z84" s="13" t="s">
+      <c r="AA84" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>13</v>
       </c>
@@ -4452,16 +4707,19 @@
       <c r="U85" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W85" s="20"/>
+      <c r="W85" s="8">
+        <v>250</v>
+      </c>
       <c r="X85" s="20"/>
-      <c r="Y85" s="12" t="s">
+      <c r="Y85" s="20"/>
+      <c r="Z85" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z85" s="13" t="s">
+      <c r="AA85" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="86" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="9" t="s">
         <v>19</v>
       </c>
@@ -4489,16 +4747,19 @@
       <c r="U86" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W86" s="20"/>
+      <c r="W86" s="9">
+        <v>400</v>
+      </c>
       <c r="X86" s="20"/>
-      <c r="Y86" s="12" t="s">
+      <c r="Y86" s="20"/>
+      <c r="Z86" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z86" s="13" t="s">
+      <c r="AA86" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="87" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>13</v>
       </c>
@@ -4526,16 +4787,19 @@
       <c r="U87" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W87" s="20"/>
+      <c r="W87" s="8">
+        <v>150</v>
+      </c>
       <c r="X87" s="20"/>
-      <c r="Y87" s="12" t="s">
+      <c r="Y87" s="20"/>
+      <c r="Z87" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z87" s="13" t="s">
+      <c r="AA87" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="88" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B88" s="9" t="s">
         <v>13</v>
       </c>
@@ -4563,16 +4827,19 @@
       <c r="U88" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W88" s="20"/>
+      <c r="W88" s="9">
+        <v>250</v>
+      </c>
       <c r="X88" s="20"/>
-      <c r="Y88" s="12" t="s">
+      <c r="Y88" s="20"/>
+      <c r="Z88" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z88" s="13" t="s">
+      <c r="AA88" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>12</v>
       </c>
@@ -4600,16 +4867,19 @@
       <c r="U89" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="W89" s="20"/>
+      <c r="W89" s="8">
+        <v>250</v>
+      </c>
       <c r="X89" s="20"/>
-      <c r="Y89" s="13" t="s">
+      <c r="Y89" s="20"/>
+      <c r="Z89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z89" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="90" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA89" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="90" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="9" t="s">
         <v>12</v>
       </c>
@@ -4637,16 +4907,19 @@
       <c r="U90" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="W90" s="20"/>
+      <c r="W90" s="9">
+        <v>150</v>
+      </c>
       <c r="X90" s="20"/>
-      <c r="Y90" s="13" t="s">
+      <c r="Y90" s="20"/>
+      <c r="Z90" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z90" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="91" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA90" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>12</v>
       </c>
@@ -4674,16 +4947,19 @@
       <c r="U91" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="W91" s="20"/>
+      <c r="W91" s="8">
+        <v>150</v>
+      </c>
       <c r="X91" s="20"/>
-      <c r="Y91" s="13" t="s">
+      <c r="Y91" s="20"/>
+      <c r="Z91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z91" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="92" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA91" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="92" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="9" t="s">
         <v>12</v>
       </c>
@@ -4711,16 +4987,19 @@
       <c r="U92" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="W92" s="20"/>
+      <c r="W92" s="9">
+        <v>150</v>
+      </c>
       <c r="X92" s="20"/>
-      <c r="Y92" s="13" t="s">
+      <c r="Y92" s="20"/>
+      <c r="Z92" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z92" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="93" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA92" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="93" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>12</v>
       </c>
@@ -4748,16 +5027,19 @@
       <c r="U93" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="W93" s="20"/>
+      <c r="W93" s="8">
+        <v>70</v>
+      </c>
       <c r="X93" s="20"/>
-      <c r="Y93" s="13" t="s">
+      <c r="Y93" s="20"/>
+      <c r="Z93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z93" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="94" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA93" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="94" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B94" s="9" t="s">
         <v>12</v>
       </c>
@@ -4785,16 +5067,19 @@
       <c r="U94" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="W94" s="20"/>
+      <c r="W94" s="9">
+        <v>150</v>
+      </c>
       <c r="X94" s="20"/>
-      <c r="Y94" s="13" t="s">
+      <c r="Y94" s="20"/>
+      <c r="Z94" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z94" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="95" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA94" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="95" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>12</v>
       </c>
@@ -4822,16 +5107,19 @@
       <c r="U95" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="W95" s="20"/>
+      <c r="W95" s="8">
+        <v>150</v>
+      </c>
       <c r="X95" s="20"/>
-      <c r="Y95" s="13" t="s">
+      <c r="Y95" s="20"/>
+      <c r="Z95" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z95" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="96" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA95" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="96" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="9" t="s">
         <v>12</v>
       </c>
@@ -4859,16 +5147,19 @@
       <c r="U96" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="W96" s="20"/>
+      <c r="W96" s="9">
+        <v>150</v>
+      </c>
       <c r="X96" s="20"/>
-      <c r="Y96" s="13" t="s">
+      <c r="Y96" s="20"/>
+      <c r="Z96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z96" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="97" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA96" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="97" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>12</v>
       </c>
@@ -4896,16 +5187,19 @@
       <c r="U97" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="W97" s="20"/>
+      <c r="W97" s="8">
+        <v>150</v>
+      </c>
       <c r="X97" s="20"/>
-      <c r="Y97" s="13" t="s">
+      <c r="Y97" s="20"/>
+      <c r="Z97" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z97" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="98" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA97" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="98" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="9" t="s">
         <v>12</v>
       </c>
@@ -4933,16 +5227,19 @@
       <c r="U98" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="W98" s="20"/>
+      <c r="W98" s="9">
+        <v>400</v>
+      </c>
       <c r="X98" s="20"/>
-      <c r="Y98" s="13" t="s">
+      <c r="Y98" s="20"/>
+      <c r="Z98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z98" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="99" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA98" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="99" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>12</v>
       </c>
@@ -4970,16 +5267,19 @@
       <c r="U99" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="W99" s="20"/>
+      <c r="W99" s="8">
+        <v>150</v>
+      </c>
       <c r="X99" s="20"/>
-      <c r="Y99" s="13" t="s">
+      <c r="Y99" s="20"/>
+      <c r="Z99" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z99" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="100" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA99" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="100" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="9" t="s">
         <v>12</v>
       </c>
@@ -5007,16 +5307,19 @@
       <c r="U100" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="W100" s="20"/>
+      <c r="W100" s="9">
+        <v>150</v>
+      </c>
       <c r="X100" s="20"/>
-      <c r="Y100" s="13" t="s">
+      <c r="Y100" s="20"/>
+      <c r="Z100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z100" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="101" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA100" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="101" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>12</v>
       </c>
@@ -5044,16 +5347,19 @@
       <c r="U101" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="W101" s="20"/>
+      <c r="W101" s="8">
+        <v>250</v>
+      </c>
       <c r="X101" s="20"/>
-      <c r="Y101" s="13" t="s">
+      <c r="Y101" s="20"/>
+      <c r="Z101" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z101" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="102" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA101" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="102" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="9" t="s">
         <v>12</v>
       </c>
@@ -5081,16 +5387,19 @@
       <c r="U102" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="W102" s="20"/>
+      <c r="W102" s="9">
+        <v>150</v>
+      </c>
       <c r="X102" s="20"/>
-      <c r="Y102" s="13" t="s">
+      <c r="Y102" s="20"/>
+      <c r="Z102" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z102" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="103" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA102" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="103" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>12</v>
       </c>
@@ -5118,16 +5427,19 @@
       <c r="U103" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="W103" s="20"/>
+      <c r="W103" s="8">
+        <v>150</v>
+      </c>
       <c r="X103" s="20"/>
-      <c r="Y103" s="13" t="s">
+      <c r="Y103" s="20"/>
+      <c r="Z103" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z103" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="104" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA103" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="104" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B104" s="9" t="s">
         <v>12</v>
       </c>
@@ -5155,16 +5467,19 @@
       <c r="U104" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="W104" s="20"/>
+      <c r="W104" s="9">
+        <v>250</v>
+      </c>
       <c r="X104" s="20"/>
-      <c r="Y104" s="13" t="s">
+      <c r="Y104" s="20"/>
+      <c r="Z104" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z104" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="105" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA104" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="105" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>12</v>
       </c>
@@ -5192,16 +5507,19 @@
       <c r="U105" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="W105" s="20"/>
+      <c r="W105" s="8">
+        <v>150</v>
+      </c>
       <c r="X105" s="20"/>
-      <c r="Y105" s="13" t="s">
+      <c r="Y105" s="20"/>
+      <c r="Z105" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z105" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="106" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA105" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="106" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B106" s="9" t="s">
         <v>12</v>
       </c>
@@ -5229,16 +5547,19 @@
       <c r="U106" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="W106" s="20"/>
+      <c r="W106" s="9">
+        <v>150</v>
+      </c>
       <c r="X106" s="20"/>
-      <c r="Y106" s="13" t="s">
+      <c r="Y106" s="20"/>
+      <c r="Z106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z106" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="107" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA106" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="107" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>12</v>
       </c>
@@ -5266,16 +5587,19 @@
       <c r="U107" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="W107" s="20"/>
+      <c r="W107" s="8">
+        <v>150</v>
+      </c>
       <c r="X107" s="20"/>
-      <c r="Y107" s="13" t="s">
+      <c r="Y107" s="20"/>
+      <c r="Z107" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z107" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="108" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA107" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="108" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B108" s="9" t="s">
         <v>12</v>
       </c>
@@ -5303,16 +5627,19 @@
       <c r="U108" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="W108" s="20"/>
+      <c r="W108" s="9">
+        <v>150</v>
+      </c>
       <c r="X108" s="20"/>
-      <c r="Y108" s="13" t="s">
+      <c r="Y108" s="20"/>
+      <c r="Z108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z108" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="109" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA108" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="109" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>12</v>
       </c>
@@ -5340,16 +5667,19 @@
       <c r="U109" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="W109" s="20"/>
+      <c r="W109" s="8">
+        <v>150</v>
+      </c>
       <c r="X109" s="20"/>
-      <c r="Y109" s="13" t="s">
+      <c r="Y109" s="20"/>
+      <c r="Z109" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z109" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="110" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA109" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="110" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="9" t="s">
         <v>12</v>
       </c>
@@ -5377,16 +5707,19 @@
       <c r="U110" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="W110" s="20"/>
+      <c r="W110" s="9">
+        <v>150</v>
+      </c>
       <c r="X110" s="20"/>
-      <c r="Y110" s="13" t="s">
+      <c r="Y110" s="20"/>
+      <c r="Z110" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z110" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="111" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA110" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="111" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>12</v>
       </c>
@@ -5414,16 +5747,19 @@
       <c r="U111" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="W111" s="20"/>
+      <c r="W111" s="8">
+        <v>150</v>
+      </c>
       <c r="X111" s="20"/>
-      <c r="Y111" s="13" t="s">
+      <c r="Y111" s="20"/>
+      <c r="Z111" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z111" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="112" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA111" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="112" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B112" s="9" t="s">
         <v>12</v>
       </c>
@@ -5451,16 +5787,19 @@
       <c r="U112" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="W112" s="20"/>
+      <c r="W112" s="9">
+        <v>150</v>
+      </c>
       <c r="X112" s="20"/>
-      <c r="Y112" s="13" t="s">
+      <c r="Y112" s="20"/>
+      <c r="Z112" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z112" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="113" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA112" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="113" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>12</v>
       </c>
@@ -5488,16 +5827,19 @@
       <c r="U113" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="W113" s="20"/>
+      <c r="W113" s="8">
+        <v>150</v>
+      </c>
       <c r="X113" s="20"/>
-      <c r="Y113" s="13" t="s">
+      <c r="Y113" s="20"/>
+      <c r="Z113" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z113" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="114" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA113" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="114" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B114" s="9" t="s">
         <v>12</v>
       </c>
@@ -5525,16 +5867,19 @@
       <c r="U114" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="W114" s="20"/>
+      <c r="W114" s="9">
+        <v>150</v>
+      </c>
       <c r="X114" s="20"/>
-      <c r="Y114" s="13" t="s">
+      <c r="Y114" s="20"/>
+      <c r="Z114" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z114" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="115" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA114" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="115" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>12</v>
       </c>
@@ -5562,16 +5907,19 @@
       <c r="U115" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="W115" s="20"/>
+      <c r="W115" s="8">
+        <v>150</v>
+      </c>
       <c r="X115" s="20"/>
-      <c r="Y115" s="13" t="s">
+      <c r="Y115" s="20"/>
+      <c r="Z115" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z115" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="116" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA115" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="116" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B116" s="9" t="s">
         <v>12</v>
       </c>
@@ -5599,16 +5947,19 @@
       <c r="U116" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="W116" s="20"/>
+      <c r="W116" s="9">
+        <v>150</v>
+      </c>
       <c r="X116" s="20"/>
-      <c r="Y116" s="13" t="s">
+      <c r="Y116" s="20"/>
+      <c r="Z116" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z116" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="117" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA116" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="117" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>12</v>
       </c>
@@ -5636,16 +5987,19 @@
       <c r="U117" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="W117" s="20"/>
+      <c r="W117" s="8">
+        <v>150</v>
+      </c>
       <c r="X117" s="20"/>
-      <c r="Y117" s="13" t="s">
+      <c r="Y117" s="20"/>
+      <c r="Z117" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z117" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="118" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA117" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="118" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B118" s="9" t="s">
         <v>12</v>
       </c>
@@ -5673,16 +6027,19 @@
       <c r="U118" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="W118" s="20"/>
+      <c r="W118" s="9">
+        <v>150</v>
+      </c>
       <c r="X118" s="20"/>
-      <c r="Y118" s="13" t="s">
+      <c r="Y118" s="20"/>
+      <c r="Z118" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z118" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="119" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA118" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="119" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>12</v>
       </c>
@@ -5710,16 +6067,19 @@
       <c r="U119" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="W119" s="20"/>
+      <c r="W119" s="8">
+        <v>150</v>
+      </c>
       <c r="X119" s="20"/>
-      <c r="Y119" s="13" t="s">
+      <c r="Y119" s="20"/>
+      <c r="Z119" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z119" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="120" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA119" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="120" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B120" s="9" t="s">
         <v>12</v>
       </c>
@@ -5747,16 +6107,19 @@
       <c r="U120" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="W120" s="20"/>
+      <c r="W120" s="9">
+        <v>150</v>
+      </c>
       <c r="X120" s="20"/>
-      <c r="Y120" s="13" t="s">
+      <c r="Y120" s="20"/>
+      <c r="Z120" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z120" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="121" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA120" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="121" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>12</v>
       </c>
@@ -5784,16 +6147,19 @@
       <c r="U121" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="W121" s="20"/>
+      <c r="W121" s="8">
+        <v>150</v>
+      </c>
       <c r="X121" s="20"/>
-      <c r="Y121" s="13" t="s">
+      <c r="Y121" s="20"/>
+      <c r="Z121" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z121" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="122" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA121" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="122" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B122" s="9" t="s">
         <v>12</v>
       </c>
@@ -5821,16 +6187,19 @@
       <c r="U122" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="W122" s="20"/>
+      <c r="W122" s="9">
+        <v>150</v>
+      </c>
       <c r="X122" s="20"/>
-      <c r="Y122" s="13" t="s">
+      <c r="Y122" s="20"/>
+      <c r="Z122" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z122" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="123" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA122" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="123" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>12</v>
       </c>
@@ -5858,16 +6227,19 @@
       <c r="U123" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="W123" s="20"/>
+      <c r="W123" s="8">
+        <v>150</v>
+      </c>
       <c r="X123" s="20"/>
-      <c r="Y123" s="13" t="s">
+      <c r="Y123" s="20"/>
+      <c r="Z123" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z123" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="124" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA123" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="124" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B124" s="9" t="s">
         <v>12</v>
       </c>
@@ -5895,16 +6267,19 @@
       <c r="U124" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="W124" s="20"/>
+      <c r="W124" s="9">
+        <v>150</v>
+      </c>
       <c r="X124" s="20"/>
-      <c r="Y124" s="13" t="s">
+      <c r="Y124" s="20"/>
+      <c r="Z124" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z124" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="125" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA124" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="125" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>12</v>
       </c>
@@ -5932,16 +6307,19 @@
       <c r="U125" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="W125" s="20"/>
+      <c r="W125" s="8">
+        <v>150</v>
+      </c>
       <c r="X125" s="20"/>
-      <c r="Y125" s="13" t="s">
+      <c r="Y125" s="20"/>
+      <c r="Z125" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z125" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="126" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA125" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="126" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B126" s="9" t="s">
         <v>12</v>
       </c>
@@ -5969,16 +6347,19 @@
       <c r="U126" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="W126" s="20"/>
+      <c r="W126" s="9">
+        <v>250</v>
+      </c>
       <c r="X126" s="20"/>
-      <c r="Y126" s="13" t="s">
+      <c r="Y126" s="20"/>
+      <c r="Z126" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z126" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="127" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA126" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="127" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>12</v>
       </c>
@@ -6006,16 +6387,19 @@
       <c r="U127" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="W127" s="20"/>
+      <c r="W127" s="8">
+        <v>150</v>
+      </c>
       <c r="X127" s="20"/>
-      <c r="Y127" s="13" t="s">
+      <c r="Y127" s="20"/>
+      <c r="Z127" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z127" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="128" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA127" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="128" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="9" t="s">
         <v>12</v>
       </c>
@@ -6043,16 +6427,19 @@
       <c r="U128" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="W128" s="20"/>
+      <c r="W128" s="9">
+        <v>150</v>
+      </c>
       <c r="X128" s="20"/>
-      <c r="Y128" s="13" t="s">
+      <c r="Y128" s="20"/>
+      <c r="Z128" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z128" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="129" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA128" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="129" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>12</v>
       </c>
@@ -6080,16 +6467,19 @@
       <c r="U129" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="W129" s="20"/>
+      <c r="W129" s="8">
+        <v>150</v>
+      </c>
       <c r="X129" s="20"/>
-      <c r="Y129" s="13" t="s">
+      <c r="Y129" s="20"/>
+      <c r="Z129" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z129" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="130" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA129" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="130" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B130" s="9" t="s">
         <v>12</v>
       </c>
@@ -6117,16 +6507,19 @@
       <c r="U130" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="W130" s="20"/>
+      <c r="W130" s="9">
+        <v>150</v>
+      </c>
       <c r="X130" s="20"/>
-      <c r="Y130" s="13" t="s">
+      <c r="Y130" s="20"/>
+      <c r="Z130" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z130" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="131" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA130" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="131" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>12</v>
       </c>
@@ -6154,16 +6547,19 @@
       <c r="U131" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="W131" s="20"/>
+      <c r="W131" s="8">
+        <v>250</v>
+      </c>
       <c r="X131" s="20"/>
-      <c r="Y131" s="13" t="s">
+      <c r="Y131" s="20"/>
+      <c r="Z131" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z131" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="132" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA131" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="132" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B132" s="9" t="s">
         <v>12</v>
       </c>
@@ -6191,16 +6587,19 @@
       <c r="U132" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="W132" s="20"/>
+      <c r="W132" s="9">
+        <v>150</v>
+      </c>
       <c r="X132" s="20"/>
-      <c r="Y132" s="13" t="s">
+      <c r="Y132" s="20"/>
+      <c r="Z132" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z132" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="133" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA132" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="133" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>13</v>
       </c>
@@ -6228,16 +6627,19 @@
       <c r="U133" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W133" s="20"/>
+      <c r="W133" s="8">
+        <v>150</v>
+      </c>
       <c r="X133" s="20"/>
-      <c r="Y133" s="12" t="s">
+      <c r="Y133" s="20"/>
+      <c r="Z133" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z133" s="13" t="s">
+      <c r="AA133" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="134" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B134" s="9" t="s">
         <v>13</v>
       </c>
@@ -6265,16 +6667,19 @@
       <c r="U134" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W134" s="20"/>
+      <c r="W134" s="9">
+        <v>150</v>
+      </c>
       <c r="X134" s="20"/>
-      <c r="Y134" s="12" t="s">
+      <c r="Y134" s="20"/>
+      <c r="Z134" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z134" s="13" t="s">
+      <c r="AA134" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="135" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>13</v>
       </c>
@@ -6302,16 +6707,19 @@
       <c r="U135" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W135" s="20"/>
+      <c r="W135" s="8">
+        <v>150</v>
+      </c>
       <c r="X135" s="20"/>
-      <c r="Y135" s="12" t="s">
+      <c r="Y135" s="20"/>
+      <c r="Z135" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z135" s="13" t="s">
+      <c r="AA135" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="136" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B136" s="9" t="s">
         <v>13</v>
       </c>
@@ -6339,16 +6747,19 @@
       <c r="U136" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W136" s="20"/>
+      <c r="W136" s="9">
+        <v>150</v>
+      </c>
       <c r="X136" s="20"/>
-      <c r="Y136" s="12" t="s">
+      <c r="Y136" s="20"/>
+      <c r="Z136" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z136" s="13" t="s">
+      <c r="AA136" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="137" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>12</v>
       </c>
@@ -6376,16 +6787,19 @@
       <c r="U137" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="W137" s="20"/>
+      <c r="W137" s="8">
+        <v>150</v>
+      </c>
       <c r="X137" s="20"/>
-      <c r="Y137" s="13" t="s">
+      <c r="Y137" s="20"/>
+      <c r="Z137" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z137" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="138" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA137" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="138" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B138" s="9" t="s">
         <v>73</v>
       </c>
@@ -6413,16 +6827,19 @@
       <c r="U138" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W138" s="20"/>
+      <c r="W138" s="9">
+        <v>150</v>
+      </c>
       <c r="X138" s="20"/>
-      <c r="Y138" s="12" t="s">
+      <c r="Y138" s="20"/>
+      <c r="Z138" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z138" s="13" t="s">
+      <c r="AA138" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="139" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>37</v>
       </c>
@@ -6450,16 +6867,16 @@
       <c r="U139" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W139" s="19"/>
       <c r="X139" s="19"/>
-      <c r="Y139" s="12" t="s">
+      <c r="Y139" s="19"/>
+      <c r="Z139" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z139" s="13" t="s">
+      <c r="AA139" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="140" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B140" s="9" t="s">
         <v>12</v>
       </c>
@@ -6487,16 +6904,16 @@
       <c r="U140" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W140" s="19"/>
       <c r="X140" s="19"/>
-      <c r="Y140" s="12" t="s">
+      <c r="Y140" s="19"/>
+      <c r="Z140" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z140" s="13" t="s">
+      <c r="AA140" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="141" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>74</v>
       </c>
@@ -6524,16 +6941,16 @@
       <c r="U141" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W141" s="19"/>
       <c r="X141" s="19"/>
-      <c r="Y141" s="12" t="s">
+      <c r="Y141" s="19"/>
+      <c r="Z141" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z141" s="13" t="s">
+      <c r="AA141" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="142" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B142" s="9" t="s">
         <v>20</v>
       </c>
@@ -6561,16 +6978,16 @@
       <c r="U142" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="W142" s="19"/>
       <c r="X142" s="19"/>
-      <c r="Y142" s="12" t="s">
+      <c r="Y142" s="19"/>
+      <c r="Z142" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z142" s="13" t="s">
+      <c r="AA142" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="143" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>74</v>
       </c>
@@ -6598,16 +7015,16 @@
       <c r="U143" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W143" s="19"/>
       <c r="X143" s="19"/>
-      <c r="Y143" s="14" t="s">
+      <c r="Y143" s="19"/>
+      <c r="Z143" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z143" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="144" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA143" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="144" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B144" s="9" t="s">
         <v>74</v>
       </c>
@@ -6635,16 +7052,16 @@
       <c r="U144" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W144" s="19"/>
       <c r="X144" s="19"/>
-      <c r="Y144" s="14" t="s">
+      <c r="Y144" s="19"/>
+      <c r="Z144" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z144" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="145" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA144" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="145" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>75</v>
       </c>
@@ -6672,16 +7089,16 @@
       <c r="U145" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W145" s="19"/>
       <c r="X145" s="19"/>
-      <c r="Y145" s="14" t="s">
+      <c r="Y145" s="19"/>
+      <c r="Z145" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z145" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="146" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA145" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="146" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B146" s="9" t="s">
         <v>13</v>
       </c>
@@ -6709,16 +7126,16 @@
       <c r="U146" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W146" s="19"/>
       <c r="X146" s="19"/>
-      <c r="Y146" s="12" t="s">
+      <c r="Y146" s="19"/>
+      <c r="Z146" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z146" s="13" t="s">
+      <c r="AA146" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="147" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>74</v>
       </c>
@@ -6746,16 +7163,16 @@
       <c r="U147" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W147" s="19"/>
       <c r="X147" s="19"/>
-      <c r="Y147" s="12" t="s">
+      <c r="Y147" s="19"/>
+      <c r="Z147" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z147" s="13" t="s">
+      <c r="AA147" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="148" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="9" t="s">
         <v>74</v>
       </c>
@@ -6783,16 +7200,16 @@
       <c r="U148" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W148" s="19"/>
       <c r="X148" s="19"/>
-      <c r="Y148" s="12" t="s">
+      <c r="Y148" s="19"/>
+      <c r="Z148" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z148" s="13" t="s">
+      <c r="AA148" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="149" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>74</v>
       </c>
@@ -6820,16 +7237,16 @@
       <c r="U149" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W149" s="19"/>
       <c r="X149" s="19"/>
-      <c r="Y149" s="12" t="s">
+      <c r="Y149" s="19"/>
+      <c r="Z149" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z149" s="13" t="s">
+      <c r="AA149" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="150" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B150" s="9" t="s">
         <v>74</v>
       </c>
@@ -6857,16 +7274,16 @@
       <c r="U150" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W150" s="19"/>
       <c r="X150" s="19"/>
-      <c r="Y150" s="12" t="s">
+      <c r="Y150" s="19"/>
+      <c r="Z150" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z150" s="13" t="s">
+      <c r="AA150" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="151" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
         <v>19</v>
       </c>
@@ -6894,16 +7311,16 @@
       <c r="U151" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W151" s="19"/>
       <c r="X151" s="19"/>
-      <c r="Y151" s="12" t="s">
+      <c r="Y151" s="19"/>
+      <c r="Z151" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z151" s="13" t="s">
+      <c r="AA151" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="152" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B152" s="9" t="s">
         <v>76</v>
       </c>
@@ -6931,16 +7348,16 @@
       <c r="U152" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W152" s="19"/>
       <c r="X152" s="19"/>
-      <c r="Y152" s="14" t="s">
+      <c r="Y152" s="19"/>
+      <c r="Z152" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z152" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="153" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA152" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="153" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B153" s="8" t="s">
         <v>76</v>
       </c>
@@ -6968,16 +7385,16 @@
       <c r="U153" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W153" s="19"/>
       <c r="X153" s="19"/>
-      <c r="Y153" s="14" t="s">
+      <c r="Y153" s="19"/>
+      <c r="Z153" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z153" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="154" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA153" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="154" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B154" s="9" t="s">
         <v>76</v>
       </c>
@@ -7005,16 +7422,16 @@
       <c r="U154" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W154" s="19"/>
       <c r="X154" s="19"/>
-      <c r="Y154" s="14" t="s">
+      <c r="Y154" s="19"/>
+      <c r="Z154" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z154" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="155" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA154" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="155" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>76</v>
       </c>
@@ -7042,16 +7459,16 @@
       <c r="U155" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W155" s="19"/>
       <c r="X155" s="19"/>
-      <c r="Y155" s="14" t="s">
+      <c r="Y155" s="19"/>
+      <c r="Z155" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z155" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="156" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA155" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="156" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B156" s="9" t="s">
         <v>75</v>
       </c>
@@ -7079,16 +7496,16 @@
       <c r="U156" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W156" s="19"/>
       <c r="X156" s="19"/>
-      <c r="Y156" s="14" t="s">
+      <c r="Y156" s="19"/>
+      <c r="Z156" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z156" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="157" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA156" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="157" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>75</v>
       </c>
@@ -7116,16 +7533,16 @@
       <c r="U157" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W157" s="19"/>
       <c r="X157" s="19"/>
-      <c r="Y157" s="14" t="s">
+      <c r="Y157" s="19"/>
+      <c r="Z157" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z157" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="158" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA157" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="158" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="9" t="s">
         <v>74</v>
       </c>
@@ -7153,16 +7570,16 @@
       <c r="U158" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W158" s="19"/>
       <c r="X158" s="19"/>
-      <c r="Y158" s="14" t="s">
+      <c r="Y158" s="19"/>
+      <c r="Z158" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z158" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="159" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA158" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="159" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
         <v>76</v>
       </c>
@@ -7190,16 +7607,16 @@
       <c r="U159" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W159" s="19"/>
       <c r="X159" s="19"/>
-      <c r="Y159" s="14" t="s">
+      <c r="Y159" s="19"/>
+      <c r="Z159" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z159" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="160" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA159" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="160" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B160" s="9" t="s">
         <v>77</v>
       </c>
@@ -7227,16 +7644,16 @@
       <c r="U160" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W160" s="19"/>
       <c r="X160" s="19"/>
-      <c r="Y160" s="14" t="s">
+      <c r="Y160" s="19"/>
+      <c r="Z160" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z160" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="161" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA160" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="161" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>17</v>
       </c>
@@ -7264,16 +7681,16 @@
       <c r="U161" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W161" s="19"/>
       <c r="X161" s="19"/>
-      <c r="Y161" s="12" t="s">
+      <c r="Y161" s="19"/>
+      <c r="Z161" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z161" s="13" t="s">
+      <c r="AA161" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="162" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B162" s="9" t="s">
         <v>12</v>
       </c>
@@ -7301,16 +7718,16 @@
       <c r="U162" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W162" s="19"/>
       <c r="X162" s="19"/>
-      <c r="Y162" s="12" t="s">
+      <c r="Y162" s="19"/>
+      <c r="Z162" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z162" s="13" t="s">
+      <c r="AA162" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="163" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>13</v>
       </c>
@@ -7338,16 +7755,16 @@
       <c r="U163" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W163" s="19"/>
       <c r="X163" s="19"/>
-      <c r="Y163" s="12" t="s">
+      <c r="Y163" s="19"/>
+      <c r="Z163" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z163" s="13" t="s">
+      <c r="AA163" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="164" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B164" s="9" t="s">
         <v>13</v>
       </c>
@@ -7375,16 +7792,16 @@
       <c r="U164" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W164" s="19"/>
       <c r="X164" s="19"/>
-      <c r="Y164" s="12" t="s">
+      <c r="Y164" s="19"/>
+      <c r="Z164" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z164" s="13" t="s">
+      <c r="AA164" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="165" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
         <v>13</v>
       </c>
@@ -7412,16 +7829,16 @@
       <c r="U165" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W165" s="19"/>
       <c r="X165" s="19"/>
-      <c r="Y165" s="12" t="s">
+      <c r="Y165" s="19"/>
+      <c r="Z165" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z165" s="13" t="s">
+      <c r="AA165" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="166" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B166" s="9" t="s">
         <v>13</v>
       </c>
@@ -7449,16 +7866,16 @@
       <c r="U166" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W166" s="19"/>
       <c r="X166" s="19"/>
-      <c r="Y166" s="12" t="s">
+      <c r="Y166" s="19"/>
+      <c r="Z166" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z166" s="13" t="s">
+      <c r="AA166" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="167" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B167" s="8" t="s">
         <v>13</v>
       </c>
@@ -7486,16 +7903,16 @@
       <c r="U167" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W167" s="19"/>
       <c r="X167" s="19"/>
-      <c r="Y167" s="12" t="s">
+      <c r="Y167" s="19"/>
+      <c r="Z167" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z167" s="13" t="s">
+      <c r="AA167" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="168" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B168" s="9" t="s">
         <v>13</v>
       </c>
@@ -7523,16 +7940,16 @@
       <c r="U168" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W168" s="19"/>
       <c r="X168" s="19"/>
-      <c r="Y168" s="12" t="s">
+      <c r="Y168" s="19"/>
+      <c r="Z168" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z168" s="13" t="s">
+      <c r="AA168" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="169" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B169" s="8" t="s">
         <v>12</v>
       </c>
@@ -7560,16 +7977,16 @@
       <c r="U169" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W169" s="19"/>
       <c r="X169" s="19"/>
-      <c r="Y169" s="12" t="s">
+      <c r="Y169" s="19"/>
+      <c r="Z169" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z169" s="13" t="s">
+      <c r="AA169" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="170" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B170" s="9" t="s">
         <v>20</v>
       </c>
@@ -7597,16 +8014,16 @@
       <c r="U170" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W170" s="19"/>
       <c r="X170" s="19"/>
-      <c r="Y170" s="12" t="s">
+      <c r="Y170" s="19"/>
+      <c r="Z170" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z170" s="13" t="s">
+      <c r="AA170" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="171" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B171" s="8" t="s">
         <v>19</v>
       </c>
@@ -7634,16 +8051,16 @@
       <c r="U171" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W171" s="19"/>
       <c r="X171" s="19"/>
-      <c r="Y171" s="12" t="s">
+      <c r="Y171" s="19"/>
+      <c r="Z171" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z171" s="13" t="s">
+      <c r="AA171" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="172" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B172" s="9" t="s">
         <v>74</v>
       </c>
@@ -7671,16 +8088,16 @@
       <c r="U172" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W172" s="19"/>
       <c r="X172" s="19"/>
-      <c r="Y172" s="14" t="s">
+      <c r="Y172" s="19"/>
+      <c r="Z172" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z172" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="173" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA172" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="173" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B173" s="8" t="s">
         <v>74</v>
       </c>
@@ -7708,16 +8125,16 @@
       <c r="U173" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W173" s="19"/>
       <c r="X173" s="19"/>
-      <c r="Y173" s="14" t="s">
+      <c r="Y173" s="19"/>
+      <c r="Z173" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z173" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="174" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA173" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="174" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B174" s="9" t="s">
         <v>74</v>
       </c>
@@ -7745,16 +8162,16 @@
       <c r="U174" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W174" s="19"/>
       <c r="X174" s="19"/>
-      <c r="Y174" s="14" t="s">
+      <c r="Y174" s="19"/>
+      <c r="Z174" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z174" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="175" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA174" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="175" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B175" s="8" t="s">
         <v>74</v>
       </c>
@@ -7782,16 +8199,16 @@
       <c r="U175" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W175" s="19"/>
       <c r="X175" s="19"/>
-      <c r="Y175" s="14" t="s">
+      <c r="Y175" s="19"/>
+      <c r="Z175" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z175" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="176" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA175" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="176" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B176" s="9" t="s">
         <v>74</v>
       </c>
@@ -7819,16 +8236,16 @@
       <c r="U176" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W176" s="19"/>
       <c r="X176" s="19"/>
-      <c r="Y176" s="14" t="s">
+      <c r="Y176" s="19"/>
+      <c r="Z176" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z176" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="177" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA176" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="177" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B177" s="8" t="s">
         <v>74</v>
       </c>
@@ -7856,16 +8273,16 @@
       <c r="U177" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W177" s="19"/>
       <c r="X177" s="19"/>
-      <c r="Y177" s="14" t="s">
+      <c r="Y177" s="19"/>
+      <c r="Z177" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z177" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="178" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA177" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="178" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B178" s="9" t="s">
         <v>74</v>
       </c>
@@ -7893,16 +8310,16 @@
       <c r="U178" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W178" s="19"/>
       <c r="X178" s="19"/>
-      <c r="Y178" s="14" t="s">
+      <c r="Y178" s="19"/>
+      <c r="Z178" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z178" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="179" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA178" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="179" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="8" t="s">
         <v>74</v>
       </c>
@@ -7930,16 +8347,16 @@
       <c r="U179" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W179" s="19"/>
       <c r="X179" s="19"/>
-      <c r="Y179" s="14" t="s">
+      <c r="Y179" s="19"/>
+      <c r="Z179" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z179" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="180" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA179" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="180" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B180" s="9" t="s">
         <v>74</v>
       </c>
@@ -7967,16 +8384,16 @@
       <c r="U180" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W180" s="19"/>
       <c r="X180" s="19"/>
-      <c r="Y180" s="14" t="s">
+      <c r="Y180" s="19"/>
+      <c r="Z180" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z180" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="181" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA180" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="181" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
         <v>74</v>
       </c>
@@ -8004,16 +8421,16 @@
       <c r="U181" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W181" s="19"/>
       <c r="X181" s="19"/>
-      <c r="Y181" s="14" t="s">
+      <c r="Y181" s="19"/>
+      <c r="Z181" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z181" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="182" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA181" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="182" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B182" s="9" t="s">
         <v>74</v>
       </c>
@@ -8041,16 +8458,16 @@
       <c r="U182" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W182" s="19"/>
       <c r="X182" s="19"/>
-      <c r="Y182" s="14" t="s">
+      <c r="Y182" s="19"/>
+      <c r="Z182" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z182" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="183" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA182" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="183" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
         <v>74</v>
       </c>
@@ -8078,16 +8495,16 @@
       <c r="U183" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W183" s="19"/>
       <c r="X183" s="19"/>
-      <c r="Y183" s="14" t="s">
+      <c r="Y183" s="19"/>
+      <c r="Z183" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z183" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="184" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA183" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="184" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B184" s="9" t="s">
         <v>74</v>
       </c>
@@ -8115,16 +8532,16 @@
       <c r="U184" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W184" s="19"/>
       <c r="X184" s="19"/>
-      <c r="Y184" s="14" t="s">
+      <c r="Y184" s="19"/>
+      <c r="Z184" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z184" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="185" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA184" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="185" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B185" s="8" t="s">
         <v>74</v>
       </c>
@@ -8152,16 +8569,16 @@
       <c r="U185" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W185" s="19"/>
       <c r="X185" s="19"/>
-      <c r="Y185" s="14" t="s">
+      <c r="Y185" s="19"/>
+      <c r="Z185" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z185" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="186" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA185" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="186" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B186" s="9" t="s">
         <v>74</v>
       </c>
@@ -8189,16 +8606,16 @@
       <c r="U186" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W186" s="19"/>
       <c r="X186" s="19"/>
-      <c r="Y186" s="14" t="s">
+      <c r="Y186" s="19"/>
+      <c r="Z186" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z186" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="187" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA186" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="187" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B187" s="8" t="s">
         <v>74</v>
       </c>
@@ -8226,16 +8643,16 @@
       <c r="U187" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W187" s="19"/>
       <c r="X187" s="19"/>
-      <c r="Y187" s="14" t="s">
+      <c r="Y187" s="19"/>
+      <c r="Z187" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z187" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="188" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA187" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="188" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B188" s="9" t="s">
         <v>74</v>
       </c>
@@ -8263,16 +8680,16 @@
       <c r="U188" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W188" s="19"/>
       <c r="X188" s="19"/>
-      <c r="Y188" s="14" t="s">
+      <c r="Y188" s="19"/>
+      <c r="Z188" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z188" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="189" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA188" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="189" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B189" s="8" t="s">
         <v>74</v>
       </c>
@@ -8300,16 +8717,16 @@
       <c r="U189" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W189" s="19"/>
       <c r="X189" s="19"/>
-      <c r="Y189" s="14" t="s">
+      <c r="Y189" s="19"/>
+      <c r="Z189" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z189" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="190" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA189" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="190" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B190" s="9" t="s">
         <v>74</v>
       </c>
@@ -8337,16 +8754,16 @@
       <c r="U190" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W190" s="19"/>
       <c r="X190" s="19"/>
-      <c r="Y190" s="14" t="s">
+      <c r="Y190" s="19"/>
+      <c r="Z190" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z190" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="191" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA190" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="191" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B191" s="8" t="s">
         <v>74</v>
       </c>
@@ -8374,16 +8791,16 @@
       <c r="U191" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W191" s="19"/>
       <c r="X191" s="19"/>
-      <c r="Y191" s="14" t="s">
+      <c r="Y191" s="19"/>
+      <c r="Z191" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z191" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="192" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA191" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="192" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B192" s="9" t="s">
         <v>74</v>
       </c>
@@ -8411,16 +8828,16 @@
       <c r="U192" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W192" s="19"/>
       <c r="X192" s="19"/>
-      <c r="Y192" s="14" t="s">
+      <c r="Y192" s="19"/>
+      <c r="Z192" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z192" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="193" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA192" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="193" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B193" s="8" t="s">
         <v>74</v>
       </c>
@@ -8448,16 +8865,16 @@
       <c r="U193" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W193" s="19"/>
       <c r="X193" s="19"/>
-      <c r="Y193" s="14" t="s">
+      <c r="Y193" s="19"/>
+      <c r="Z193" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z193" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="194" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA193" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="194" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B194" s="9" t="s">
         <v>74</v>
       </c>
@@ -8485,16 +8902,16 @@
       <c r="U194" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W194" s="19"/>
       <c r="X194" s="19"/>
-      <c r="Y194" s="14" t="s">
+      <c r="Y194" s="19"/>
+      <c r="Z194" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z194" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="195" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA194" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="195" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B195" s="8" t="s">
         <v>74</v>
       </c>
@@ -8522,16 +8939,16 @@
       <c r="U195" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W195" s="19"/>
       <c r="X195" s="19"/>
-      <c r="Y195" s="14" t="s">
+      <c r="Y195" s="19"/>
+      <c r="Z195" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z195" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="196" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA195" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="196" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B196" s="9" t="s">
         <v>74</v>
       </c>
@@ -8559,16 +8976,16 @@
       <c r="U196" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W196" s="19"/>
       <c r="X196" s="19"/>
-      <c r="Y196" s="14" t="s">
+      <c r="Y196" s="19"/>
+      <c r="Z196" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z196" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="197" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA196" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="197" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B197" s="8" t="s">
         <v>74</v>
       </c>
@@ -8596,16 +9013,16 @@
       <c r="U197" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W197" s="19"/>
       <c r="X197" s="19"/>
-      <c r="Y197" s="14" t="s">
+      <c r="Y197" s="19"/>
+      <c r="Z197" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z197" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="198" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA197" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="198" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B198" s="9" t="s">
         <v>74</v>
       </c>
@@ -8633,16 +9050,16 @@
       <c r="U198" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W198" s="19"/>
       <c r="X198" s="19"/>
-      <c r="Y198" s="14" t="s">
+      <c r="Y198" s="19"/>
+      <c r="Z198" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z198" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="199" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA198" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="199" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B199" s="8" t="s">
         <v>74</v>
       </c>
@@ -8670,16 +9087,16 @@
       <c r="U199" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W199" s="19"/>
       <c r="X199" s="19"/>
-      <c r="Y199" s="14" t="s">
+      <c r="Y199" s="19"/>
+      <c r="Z199" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z199" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="200" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA199" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="200" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B200" s="9" t="s">
         <v>74</v>
       </c>
@@ -8707,16 +9124,16 @@
       <c r="U200" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W200" s="19"/>
       <c r="X200" s="19"/>
-      <c r="Y200" s="14" t="s">
+      <c r="Y200" s="19"/>
+      <c r="Z200" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z200" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="201" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA200" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="201" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B201" s="8" t="s">
         <v>74</v>
       </c>
@@ -8744,16 +9161,16 @@
       <c r="U201" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W201" s="19"/>
       <c r="X201" s="19"/>
-      <c r="Y201" s="14" t="s">
+      <c r="Y201" s="19"/>
+      <c r="Z201" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z201" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="202" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA201" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="202" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B202" s="9" t="s">
         <v>74</v>
       </c>
@@ -8781,16 +9198,16 @@
       <c r="U202" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W202" s="19"/>
       <c r="X202" s="19"/>
-      <c r="Y202" s="14" t="s">
+      <c r="Y202" s="19"/>
+      <c r="Z202" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z202" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="203" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA202" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="203" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B203" s="8" t="s">
         <v>74</v>
       </c>
@@ -8818,16 +9235,16 @@
       <c r="U203" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W203" s="19"/>
       <c r="X203" s="19"/>
-      <c r="Y203" s="14" t="s">
+      <c r="Y203" s="19"/>
+      <c r="Z203" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z203" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="204" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA203" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="204" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B204" s="9" t="s">
         <v>74</v>
       </c>
@@ -8855,16 +9272,16 @@
       <c r="U204" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W204" s="19"/>
       <c r="X204" s="19"/>
-      <c r="Y204" s="14" t="s">
+      <c r="Y204" s="19"/>
+      <c r="Z204" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z204" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="205" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA204" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="205" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B205" s="8" t="s">
         <v>74</v>
       </c>
@@ -8892,16 +9309,16 @@
       <c r="U205" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W205" s="19"/>
       <c r="X205" s="19"/>
-      <c r="Y205" s="14" t="s">
+      <c r="Y205" s="19"/>
+      <c r="Z205" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z205" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="206" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA205" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="206" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B206" s="9" t="s">
         <v>74</v>
       </c>
@@ -8929,16 +9346,16 @@
       <c r="U206" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W206" s="19"/>
       <c r="X206" s="19"/>
-      <c r="Y206" s="14" t="s">
+      <c r="Y206" s="19"/>
+      <c r="Z206" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z206" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="207" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA206" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="207" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B207" s="8" t="s">
         <v>74</v>
       </c>
@@ -8966,16 +9383,16 @@
       <c r="U207" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W207" s="19"/>
       <c r="X207" s="19"/>
-      <c r="Y207" s="14" t="s">
+      <c r="Y207" s="19"/>
+      <c r="Z207" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z207" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="208" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA207" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="208" spans="2:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B208" s="9" t="s">
         <v>74</v>
       </c>
@@ -9003,17 +9420,17 @@
       <c r="U208" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="W208" s="19"/>
       <c r="X208" s="19"/>
-      <c r="Y208" s="14" t="s">
+      <c r="Y208" s="19"/>
+      <c r="Z208" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z208" s="14" t="s">
+      <c r="AA208" s="14" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC1" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <autoFilter ref="A1:AD1" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/table_itajai_test.xlsx
+++ b/table_itajai_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdminDell\Desktop\Fast_PPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74109CF-658F-480C-A80B-2A1167F7DE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B17C65-3070-41BF-BAEB-5BF9EA7FBD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -923,7 +923,7 @@
   <dimension ref="A1:AD208"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1067,7 +1067,7 @@
         <v>2</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="V2" s="1">
         <v>1</v>
